--- a/output/aquatic_resource_permit_2025.xlsx
+++ b/output/aquatic_resource_permit_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\salmon-habitat-mapping\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228A4E-FFC1-41E2-BB3B-B5FCE0D534CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3071C4B2-0754-432F-B6B0-3B407F62999F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="A2CD" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="480" windowWidth="27690" windowHeight="13125" tabRatio="604" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2081,7 +2081,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2248,45 +2248,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2309,6 +2285,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="22" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2318,19 +2297,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2338,9 +2309,32 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2747,10 +2741,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
@@ -2827,53 +2821,53 @@
     </row>
     <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
     </row>
     <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
@@ -2944,29 +2938,29 @@
       <c r="S26" s="48"/>
     </row>
     <row r="27" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
     </row>
     <row r="28" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
@@ -2984,29 +2978,29 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3025,10 +3019,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Y184"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J157" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V155" sqref="V155"/>
+    <sheetView tabSelected="1" topLeftCell="B163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3037,49 +3031,49 @@
     <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="48.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="43" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="43" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
@@ -3088,38 +3082,36 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="E3" s="82"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="101">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="83">
         <v>45755.5</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="96"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>374</v>
       </c>
@@ -3128,8 +3120,8 @@
       <c r="D5" s="62"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="97"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="61"/>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
@@ -3146,113 +3138,110 @@
       <c r="V5" s="61"/>
       <c r="W5" s="61"/>
       <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="98" t="s">
+      <c r="G6" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="I6" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="K6" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="L6" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="86" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="V6" s="73" t="s">
+      <c r="U6" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="W6" s="73" t="s">
+      <c r="V6" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="X6" s="73" t="s">
+      <c r="W6" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="X6" s="91" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="4" customFormat="1" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="56" t="s">
+    <row r="7" spans="1:24" s="4" customFormat="1" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="57" t="s">
         <v>366</v>
       </c>
+      <c r="N7" s="58" t="s">
+        <v>308</v>
+      </c>
       <c r="O7" s="58" t="s">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="P7" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="Q7" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="R7" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="T7" s="87"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="9" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="S7" s="81"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+    </row>
+    <row r="9" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>60.542373283519197</v>
       </c>
@@ -3262,35 +3251,32 @@
       <c r="F9" t="s">
         <v>395</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="100">
+      <c r="G9" s="73">
         <v>45933</v>
       </c>
+      <c r="H9" t="s">
+        <v>382</v>
+      </c>
       <c r="I9" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
         <v>253</v>
       </c>
-      <c r="T9">
+      <c r="S9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>286</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>60.542373283519197</v>
       </c>
@@ -3300,35 +3286,32 @@
       <c r="F10" t="s">
         <v>395</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="100">
+      <c r="G10" s="73">
         <v>45933</v>
       </c>
+      <c r="H10" t="s">
+        <v>382</v>
+      </c>
       <c r="I10" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
         <v>253</v>
       </c>
-      <c r="T10">
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>286</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="X10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>60.542373283519197</v>
       </c>
@@ -3338,35 +3321,32 @@
       <c r="F11" t="s">
         <v>395</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="100">
+      <c r="G11" s="73">
         <v>45933</v>
       </c>
+      <c r="H11" t="s">
+        <v>382</v>
+      </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" t="s">
         <v>218</v>
       </c>
-      <c r="T11">
+      <c r="S11">
         <v>15</v>
       </c>
-      <c r="U11" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="T11" t="s">
+        <v>383</v>
+      </c>
+      <c r="X11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>60.542373283519197</v>
       </c>
@@ -3376,35 +3356,32 @@
       <c r="F12" t="s">
         <v>395</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="100">
+      <c r="G12" s="73">
         <v>45933</v>
       </c>
+      <c r="H12" t="s">
+        <v>382</v>
+      </c>
       <c r="I12" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L12" t="s">
         <v>218</v>
       </c>
-      <c r="T12">
+      <c r="S12">
         <v>15</v>
       </c>
-      <c r="U12" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="T12" t="s">
+        <v>383</v>
+      </c>
+      <c r="X12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>60.5423104164717</v>
       </c>
@@ -3414,35 +3391,32 @@
       <c r="F13" t="s">
         <v>394</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="100">
+      <c r="G13" s="73">
         <v>45933</v>
       </c>
+      <c r="H13" t="s">
+        <v>382</v>
+      </c>
       <c r="I13" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" t="s">
-        <v>241</v>
-      </c>
-      <c r="T13">
+        <v>241</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="U13" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="T13" t="s">
+        <v>383</v>
+      </c>
+      <c r="X13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>60.5423104164717</v>
       </c>
@@ -3452,35 +3426,32 @@
       <c r="F14" t="s">
         <v>394</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="100">
+      <c r="G14" s="73">
         <v>45933</v>
       </c>
+      <c r="H14" t="s">
+        <v>382</v>
+      </c>
       <c r="I14" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" t="s">
-        <v>241</v>
-      </c>
-      <c r="T14">
+        <v>241</v>
+      </c>
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="U14" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="T14" t="s">
+        <v>383</v>
+      </c>
+      <c r="X14" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>60.5423104164717</v>
       </c>
@@ -3490,35 +3461,32 @@
       <c r="F15" t="s">
         <v>394</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" s="100">
+      <c r="G15" s="73">
         <v>45933</v>
       </c>
+      <c r="H15" t="s">
+        <v>382</v>
+      </c>
       <c r="I15" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" t="s">
-        <v>241</v>
-      </c>
-      <c r="T15">
+        <v>241</v>
+      </c>
+      <c r="S15">
         <v>1</v>
       </c>
-      <c r="U15" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="T15" t="s">
+        <v>383</v>
+      </c>
+      <c r="X15" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>60.5423104164717</v>
       </c>
@@ -3528,35 +3496,32 @@
       <c r="F16" t="s">
         <v>394</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="100">
+      <c r="G16" s="73">
         <v>45933</v>
       </c>
+      <c r="H16" t="s">
+        <v>382</v>
+      </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" t="s">
         <v>253</v>
       </c>
-      <c r="T16">
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="U16" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="T16" t="s">
+        <v>383</v>
+      </c>
+      <c r="X16" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>60.5423104164717</v>
       </c>
@@ -3566,35 +3531,32 @@
       <c r="F17" t="s">
         <v>394</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="100">
+      <c r="G17" s="73">
         <v>45933</v>
       </c>
+      <c r="H17" t="s">
+        <v>382</v>
+      </c>
       <c r="I17" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" t="s">
         <v>253</v>
       </c>
-      <c r="T17">
+      <c r="S17">
         <v>5</v>
       </c>
-      <c r="U17" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="T17" t="s">
+        <v>383</v>
+      </c>
+      <c r="X17" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>60.5423104164717</v>
       </c>
@@ -3604,35 +3566,32 @@
       <c r="F18" t="s">
         <v>394</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="100">
+      <c r="G18" s="73">
         <v>45933</v>
       </c>
+      <c r="H18" t="s">
+        <v>382</v>
+      </c>
       <c r="I18" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" t="s">
         <v>253</v>
       </c>
-      <c r="T18">
+      <c r="S18">
         <v>5</v>
       </c>
-      <c r="U18" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="T18" t="s">
+        <v>383</v>
+      </c>
+      <c r="X18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>60.5423104164717</v>
       </c>
@@ -3642,35 +3601,32 @@
       <c r="F19" t="s">
         <v>394</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="100">
+      <c r="G19" s="73">
         <v>45933</v>
       </c>
+      <c r="H19" t="s">
+        <v>382</v>
+      </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" t="s">
         <v>253</v>
       </c>
-      <c r="T19">
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="U19" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="T19" t="s">
+        <v>383</v>
+      </c>
+      <c r="X19" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>60.5423104164717</v>
       </c>
@@ -3680,35 +3636,32 @@
       <c r="F20" t="s">
         <v>394</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="100">
+      <c r="G20" s="73">
         <v>45933</v>
       </c>
+      <c r="H20" t="s">
+        <v>382</v>
+      </c>
       <c r="I20" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" t="s">
         <v>253</v>
       </c>
-      <c r="T20">
+      <c r="S20">
         <v>3</v>
       </c>
-      <c r="U20" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="T20" t="s">
+        <v>383</v>
+      </c>
+      <c r="X20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>60.5423104164717</v>
       </c>
@@ -3718,35 +3671,32 @@
       <c r="F21" t="s">
         <v>394</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="100">
+      <c r="G21" s="73">
         <v>45933</v>
       </c>
+      <c r="H21" t="s">
+        <v>382</v>
+      </c>
       <c r="I21" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" t="s">
         <v>253</v>
       </c>
-      <c r="T21">
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="U21" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="T21" t="s">
+        <v>383</v>
+      </c>
+      <c r="X21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>60.542291165716698</v>
       </c>
@@ -3756,32 +3706,29 @@
       <c r="F22" t="s">
         <v>394</v>
       </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22" s="100">
+      <c r="G22" s="73">
         <v>45933</v>
       </c>
+      <c r="H22" t="s">
+        <v>382</v>
+      </c>
       <c r="I22" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" t="s">
         <v>253</v>
       </c>
-      <c r="T22">
+      <c r="S22">
         <v>1</v>
       </c>
-      <c r="U22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>60.542291165716698</v>
       </c>
@@ -3791,32 +3738,29 @@
       <c r="F23" t="s">
         <v>394</v>
       </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
-      <c r="H23" s="100">
+      <c r="G23" s="73">
         <v>45933</v>
       </c>
+      <c r="H23" t="s">
+        <v>382</v>
+      </c>
       <c r="I23" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" t="s">
         <v>253</v>
       </c>
-      <c r="T23">
+      <c r="S23">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>60.542291165716698</v>
       </c>
@@ -3826,32 +3770,29 @@
       <c r="F24" t="s">
         <v>394</v>
       </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="H24" s="100">
+      <c r="G24" s="73">
         <v>45933</v>
       </c>
+      <c r="H24" t="s">
+        <v>382</v>
+      </c>
       <c r="I24" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" t="s">
         <v>253</v>
       </c>
-      <c r="T24">
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="U24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>60.542291165716698</v>
       </c>
@@ -3861,32 +3802,29 @@
       <c r="F25" t="s">
         <v>394</v>
       </c>
-      <c r="G25">
-        <v>17</v>
-      </c>
-      <c r="H25" s="100">
+      <c r="G25" s="73">
         <v>45933</v>
       </c>
+      <c r="H25" t="s">
+        <v>382</v>
+      </c>
       <c r="I25" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" t="s">
         <v>253</v>
       </c>
-      <c r="T25">
+      <c r="S25">
         <v>2</v>
       </c>
-      <c r="U25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>60.542270916539501</v>
       </c>
@@ -3896,32 +3834,29 @@
       <c r="F26" t="s">
         <v>394</v>
       </c>
-      <c r="G26">
-        <v>18</v>
-      </c>
-      <c r="H26" s="100">
+      <c r="G26" s="73">
         <v>45933</v>
       </c>
+      <c r="H26" t="s">
+        <v>382</v>
+      </c>
       <c r="I26" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" t="s">
-        <v>241</v>
-      </c>
-      <c r="T26">
+        <v>241</v>
+      </c>
+      <c r="S26">
         <v>4</v>
       </c>
-      <c r="U26" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>60.542270916539501</v>
       </c>
@@ -3931,32 +3866,29 @@
       <c r="F27" t="s">
         <v>394</v>
       </c>
-      <c r="G27">
-        <v>19</v>
-      </c>
-      <c r="H27" s="100">
+      <c r="G27" s="73">
         <v>45933</v>
       </c>
+      <c r="H27" t="s">
+        <v>382</v>
+      </c>
       <c r="I27" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" t="s">
-        <v>241</v>
-      </c>
-      <c r="T27">
+        <v>241</v>
+      </c>
+      <c r="S27">
         <v>4</v>
       </c>
-      <c r="U27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>60.542270916539501</v>
       </c>
@@ -3966,32 +3898,29 @@
       <c r="F28" t="s">
         <v>394</v>
       </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28" s="100">
+      <c r="G28" s="73">
         <v>45933</v>
       </c>
+      <c r="H28" t="s">
+        <v>382</v>
+      </c>
       <c r="I28" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" t="s">
-        <v>241</v>
-      </c>
-      <c r="T28">
+        <v>241</v>
+      </c>
+      <c r="S28">
         <v>4</v>
       </c>
-      <c r="U28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>60.542270916539501</v>
       </c>
@@ -4001,32 +3930,29 @@
       <c r="F29" t="s">
         <v>394</v>
       </c>
-      <c r="G29">
-        <v>21</v>
-      </c>
-      <c r="H29" s="100">
+      <c r="G29" s="73">
         <v>45933</v>
       </c>
+      <c r="H29" t="s">
+        <v>382</v>
+      </c>
       <c r="I29" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" t="s">
         <v>253</v>
       </c>
-      <c r="T29">
+      <c r="S29">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>60.542270916539501</v>
       </c>
@@ -4036,32 +3962,29 @@
       <c r="F30" t="s">
         <v>394</v>
       </c>
-      <c r="G30">
-        <v>22</v>
-      </c>
-      <c r="H30" s="100">
+      <c r="G30" s="73">
         <v>45933</v>
       </c>
+      <c r="H30" t="s">
+        <v>382</v>
+      </c>
       <c r="I30" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>170</v>
-      </c>
-      <c r="L30" t="s">
         <v>253</v>
       </c>
-      <c r="T30">
+      <c r="S30">
         <v>2</v>
       </c>
-      <c r="U30" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>60.542270916539501</v>
       </c>
@@ -4071,32 +3994,29 @@
       <c r="F31" t="s">
         <v>394</v>
       </c>
-      <c r="G31">
-        <v>23</v>
-      </c>
-      <c r="H31" s="100">
+      <c r="G31" s="73">
         <v>45933</v>
       </c>
+      <c r="H31" t="s">
+        <v>382</v>
+      </c>
       <c r="I31" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
-      </c>
-      <c r="L31" t="s">
         <v>253</v>
       </c>
-      <c r="T31">
+      <c r="S31">
         <v>2</v>
       </c>
-      <c r="U31" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>60.542270916539501</v>
       </c>
@@ -4106,32 +4026,29 @@
       <c r="F32" t="s">
         <v>394</v>
       </c>
-      <c r="G32">
-        <v>24</v>
-      </c>
-      <c r="H32" s="100">
+      <c r="G32" s="73">
         <v>45933</v>
       </c>
+      <c r="H32" t="s">
+        <v>382</v>
+      </c>
       <c r="I32" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" t="s">
-        <v>241</v>
-      </c>
-      <c r="T32">
+        <v>241</v>
+      </c>
+      <c r="S32">
         <v>5</v>
       </c>
-      <c r="U32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>60.542270916539501</v>
       </c>
@@ -4141,32 +4058,29 @@
       <c r="F33" t="s">
         <v>394</v>
       </c>
-      <c r="G33">
-        <v>25</v>
-      </c>
-      <c r="H33" s="100">
+      <c r="G33" s="73">
         <v>45933</v>
       </c>
+      <c r="H33" t="s">
+        <v>382</v>
+      </c>
       <c r="I33" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" t="s">
-        <v>241</v>
-      </c>
-      <c r="T33">
+        <v>241</v>
+      </c>
+      <c r="S33">
         <v>5</v>
       </c>
-      <c r="U33" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>60.542270916539501</v>
       </c>
@@ -4176,32 +4090,29 @@
       <c r="F34" t="s">
         <v>394</v>
       </c>
-      <c r="G34">
-        <v>26</v>
-      </c>
-      <c r="H34" s="100">
+      <c r="G34" s="73">
         <v>45933</v>
       </c>
+      <c r="H34" t="s">
+        <v>382</v>
+      </c>
       <c r="I34" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" t="s">
-        <v>241</v>
-      </c>
-      <c r="T34">
+        <v>241</v>
+      </c>
+      <c r="S34">
         <v>5</v>
       </c>
-      <c r="U34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>60.542345116485301</v>
       </c>
@@ -4211,35 +4122,32 @@
       <c r="F35" t="s">
         <v>394</v>
       </c>
-      <c r="G35">
-        <v>27</v>
-      </c>
-      <c r="H35" s="100">
+      <c r="G35" s="73">
         <v>45933</v>
       </c>
+      <c r="H35" t="s">
+        <v>382</v>
+      </c>
       <c r="I35" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" t="s">
         <v>253</v>
       </c>
-      <c r="T35">
+      <c r="S35">
         <v>5</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" t="s">
         <v>286</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="X35" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>60.542345116485301</v>
       </c>
@@ -4249,35 +4157,32 @@
       <c r="F36" t="s">
         <v>394</v>
       </c>
-      <c r="G36">
-        <v>28</v>
-      </c>
-      <c r="H36" s="100">
+      <c r="G36" s="73">
         <v>45933</v>
       </c>
+      <c r="H36" t="s">
+        <v>382</v>
+      </c>
       <c r="I36" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" t="s">
         <v>253</v>
       </c>
-      <c r="T36">
+      <c r="S36">
         <v>5</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" t="s">
         <v>286</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="X36" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>60.542345116485301</v>
       </c>
@@ -4287,35 +4192,32 @@
       <c r="F37" t="s">
         <v>393</v>
       </c>
-      <c r="G37">
-        <v>29</v>
-      </c>
-      <c r="H37" s="100">
+      <c r="G37" s="73">
         <v>45933</v>
       </c>
+      <c r="H37" t="s">
+        <v>382</v>
+      </c>
       <c r="I37" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" t="s">
         <v>253</v>
       </c>
-      <c r="T37">
+      <c r="S37">
         <v>5</v>
       </c>
-      <c r="U37" t="s">
+      <c r="T37" t="s">
         <v>286</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="X37" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>60.542345116485301</v>
       </c>
@@ -4325,32 +4227,29 @@
       <c r="F38" t="s">
         <v>393</v>
       </c>
-      <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="H38" s="100">
+      <c r="G38" s="73">
         <v>45933</v>
       </c>
+      <c r="H38" t="s">
+        <v>382</v>
+      </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>170</v>
-      </c>
-      <c r="L38" t="s">
         <v>253</v>
       </c>
-      <c r="T38">
+      <c r="S38">
         <v>0</v>
       </c>
-      <c r="U38" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>60.542345116485301</v>
       </c>
@@ -4360,32 +4259,29 @@
       <c r="F39" t="s">
         <v>393</v>
       </c>
-      <c r="G39">
-        <v>31</v>
-      </c>
-      <c r="H39" s="100">
+      <c r="G39" s="73">
         <v>45933</v>
       </c>
+      <c r="H39" t="s">
+        <v>382</v>
+      </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>170</v>
-      </c>
-      <c r="L39" t="s">
         <v>253</v>
       </c>
-      <c r="T39">
+      <c r="S39">
         <v>0</v>
       </c>
-      <c r="U39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>60.542345116485301</v>
       </c>
@@ -4395,32 +4291,29 @@
       <c r="F40" t="s">
         <v>393</v>
       </c>
-      <c r="G40">
-        <v>32</v>
-      </c>
-      <c r="H40" s="100">
+      <c r="G40" s="73">
         <v>45933</v>
       </c>
+      <c r="H40" t="s">
+        <v>382</v>
+      </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
-      </c>
-      <c r="L40" t="s">
         <v>253</v>
       </c>
-      <c r="T40">
+      <c r="S40">
         <v>0</v>
       </c>
-      <c r="U40" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>60.542345116485301</v>
       </c>
@@ -4430,32 +4323,29 @@
       <c r="F41" t="s">
         <v>393</v>
       </c>
-      <c r="G41">
-        <v>33</v>
-      </c>
-      <c r="H41" s="100">
+      <c r="G41" s="73">
         <v>45933</v>
       </c>
+      <c r="H41" t="s">
+        <v>382</v>
+      </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
-      </c>
-      <c r="L41" t="s">
-        <v>241</v>
-      </c>
-      <c r="T41">
+        <v>241</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
-      <c r="U41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>60.542345116485301</v>
       </c>
@@ -4465,32 +4355,29 @@
       <c r="F42" t="s">
         <v>394</v>
       </c>
-      <c r="G42">
-        <v>34</v>
-      </c>
-      <c r="H42" s="100">
+      <c r="G42" s="73">
         <v>45933</v>
       </c>
+      <c r="H42" t="s">
+        <v>382</v>
+      </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
-      </c>
-      <c r="L42" t="s">
-        <v>241</v>
-      </c>
-      <c r="T42">
+        <v>241</v>
+      </c>
+      <c r="S42">
         <v>0</v>
       </c>
-      <c r="U42" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>60.542345116485301</v>
       </c>
@@ -4500,32 +4387,29 @@
       <c r="F43" t="s">
         <v>394</v>
       </c>
-      <c r="G43">
-        <v>35</v>
-      </c>
-      <c r="H43" s="100">
+      <c r="G43" s="73">
         <v>45933</v>
       </c>
+      <c r="H43" t="s">
+        <v>382</v>
+      </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" t="s">
-        <v>241</v>
-      </c>
-      <c r="T43">
+        <v>241</v>
+      </c>
+      <c r="S43">
         <v>0</v>
       </c>
-      <c r="U43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>60.542587316657901</v>
       </c>
@@ -4535,35 +4419,32 @@
       <c r="F44" t="s">
         <v>394</v>
       </c>
-      <c r="G44">
-        <v>36</v>
-      </c>
-      <c r="H44" s="100">
+      <c r="G44" s="73">
         <v>45933</v>
       </c>
+      <c r="H44" t="s">
+        <v>382</v>
+      </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" t="s">
-        <v>241</v>
-      </c>
-      <c r="T44">
+        <v>241</v>
+      </c>
+      <c r="S44">
         <v>5</v>
       </c>
-      <c r="U44" t="s">
+      <c r="T44" t="s">
         <v>286</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="X44" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>60.542587316657901</v>
       </c>
@@ -4573,35 +4454,32 @@
       <c r="F45" t="s">
         <v>394</v>
       </c>
-      <c r="G45">
-        <v>37</v>
-      </c>
-      <c r="H45" s="100">
+      <c r="G45" s="73">
         <v>45933</v>
       </c>
+      <c r="H45" t="s">
+        <v>382</v>
+      </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" t="s">
-        <v>241</v>
-      </c>
-      <c r="T45">
+        <v>241</v>
+      </c>
+      <c r="S45">
         <v>5</v>
       </c>
-      <c r="U45" t="s">
+      <c r="T45" t="s">
         <v>286</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="X45" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>60.542587316657901</v>
       </c>
@@ -4611,35 +4489,32 @@
       <c r="F46" t="s">
         <v>394</v>
       </c>
-      <c r="G46">
-        <v>38</v>
-      </c>
-      <c r="H46" s="100">
+      <c r="G46" s="73">
         <v>45933</v>
       </c>
+      <c r="H46" t="s">
+        <v>382</v>
+      </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
-      </c>
-      <c r="L46" t="s">
-        <v>241</v>
-      </c>
-      <c r="T46">
+        <v>241</v>
+      </c>
+      <c r="S46">
         <v>5</v>
       </c>
-      <c r="U46" t="s">
+      <c r="T46" t="s">
         <v>286</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="X46" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>60.542587316657901</v>
       </c>
@@ -4649,32 +4524,29 @@
       <c r="F47" t="s">
         <v>394</v>
       </c>
-      <c r="G47">
-        <v>39</v>
-      </c>
-      <c r="H47" s="100">
+      <c r="G47" s="73">
         <v>45933</v>
       </c>
+      <c r="H47" t="s">
+        <v>382</v>
+      </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" t="s">
-        <v>241</v>
-      </c>
-      <c r="T47">
+        <v>241</v>
+      </c>
+      <c r="S47">
         <v>2</v>
       </c>
-      <c r="U47" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>60.542587316657901</v>
       </c>
@@ -4684,32 +4556,29 @@
       <c r="F48" t="s">
         <v>394</v>
       </c>
-      <c r="G48">
-        <v>40</v>
-      </c>
-      <c r="H48" s="100">
+      <c r="G48" s="73">
         <v>45933</v>
       </c>
+      <c r="H48" t="s">
+        <v>382</v>
+      </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s">
-        <v>88</v>
-      </c>
-      <c r="L48" t="s">
-        <v>241</v>
-      </c>
-      <c r="T48">
+        <v>241</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="U48" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>60.542587316657901</v>
       </c>
@@ -4719,32 +4588,29 @@
       <c r="F49" t="s">
         <v>394</v>
       </c>
-      <c r="G49">
-        <v>41</v>
-      </c>
-      <c r="H49" s="100">
+      <c r="G49" s="73">
         <v>45933</v>
       </c>
+      <c r="H49" t="s">
+        <v>382</v>
+      </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
-      </c>
-      <c r="L49" t="s">
-        <v>241</v>
-      </c>
-      <c r="T49">
+        <v>241</v>
+      </c>
+      <c r="S49">
         <v>2</v>
       </c>
-      <c r="U49" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>60.542587316657901</v>
       </c>
@@ -4754,32 +4620,29 @@
       <c r="F50" t="s">
         <v>394</v>
       </c>
-      <c r="G50">
-        <v>42</v>
-      </c>
-      <c r="H50" s="100">
+      <c r="G50" s="73">
         <v>45933</v>
       </c>
+      <c r="H50" t="s">
+        <v>382</v>
+      </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K50" t="s">
-        <v>127</v>
-      </c>
-      <c r="L50" t="s">
         <v>253</v>
       </c>
-      <c r="T50">
+      <c r="S50">
         <v>2</v>
       </c>
-      <c r="U50" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>60.542587316657901</v>
       </c>
@@ -4789,32 +4652,29 @@
       <c r="F51" t="s">
         <v>394</v>
       </c>
-      <c r="G51">
-        <v>43</v>
-      </c>
-      <c r="H51" s="100">
+      <c r="G51" s="73">
         <v>45933</v>
       </c>
+      <c r="H51" t="s">
+        <v>382</v>
+      </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s">
-        <v>127</v>
-      </c>
-      <c r="L51" t="s">
         <v>253</v>
       </c>
-      <c r="T51">
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="U51" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>60.542587316657901</v>
       </c>
@@ -4824,32 +4684,29 @@
       <c r="F52" t="s">
         <v>394</v>
       </c>
-      <c r="G52">
-        <v>44</v>
-      </c>
-      <c r="H52" s="100">
+      <c r="G52" s="73">
         <v>45933</v>
       </c>
+      <c r="H52" t="s">
+        <v>382</v>
+      </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K52" t="s">
-        <v>127</v>
-      </c>
-      <c r="L52" t="s">
         <v>253</v>
       </c>
-      <c r="T52">
+      <c r="S52">
         <v>2</v>
       </c>
-      <c r="U52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>60.536810585824803</v>
       </c>
@@ -4859,32 +4716,29 @@
       <c r="F53" t="s">
         <v>396</v>
       </c>
-      <c r="G53">
-        <v>45</v>
-      </c>
-      <c r="H53" s="100">
+      <c r="G53" s="73">
         <v>45891</v>
       </c>
+      <c r="H53" t="s">
+        <v>382</v>
+      </c>
       <c r="I53" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J53" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>170</v>
-      </c>
-      <c r="L53" t="s">
         <v>253</v>
       </c>
-      <c r="T53">
+      <c r="S53">
         <v>0</v>
       </c>
-      <c r="U53" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>60.536810585824803</v>
       </c>
@@ -4894,32 +4748,29 @@
       <c r="F54" t="s">
         <v>396</v>
       </c>
-      <c r="G54">
-        <v>46</v>
-      </c>
-      <c r="H54" s="100">
+      <c r="G54" s="73">
         <v>45891</v>
       </c>
+      <c r="H54" t="s">
+        <v>382</v>
+      </c>
       <c r="I54" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J54" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>170</v>
-      </c>
-      <c r="L54" t="s">
         <v>253</v>
       </c>
-      <c r="T54">
+      <c r="S54">
         <v>0</v>
       </c>
-      <c r="U54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>60.536810585824803</v>
       </c>
@@ -4929,32 +4780,29 @@
       <c r="F55" t="s">
         <v>396</v>
       </c>
-      <c r="G55">
-        <v>47</v>
-      </c>
-      <c r="H55" s="100">
+      <c r="G55" s="73">
         <v>45891</v>
       </c>
+      <c r="H55" t="s">
+        <v>382</v>
+      </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K55" t="s">
-        <v>186</v>
-      </c>
-      <c r="L55" t="s">
         <v>253</v>
       </c>
-      <c r="T55">
+      <c r="S55">
         <v>2</v>
       </c>
-      <c r="U55" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>60.536810585824803</v>
       </c>
@@ -4964,32 +4812,29 @@
       <c r="F56" t="s">
         <v>396</v>
       </c>
-      <c r="G56">
-        <v>48</v>
-      </c>
-      <c r="H56" s="100">
+      <c r="G56" s="73">
         <v>45891</v>
       </c>
+      <c r="H56" t="s">
+        <v>382</v>
+      </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J56" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56" t="s">
         <v>253</v>
       </c>
-      <c r="T56">
+      <c r="S56">
         <v>2</v>
       </c>
-      <c r="U56" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>60.523832333470999</v>
       </c>
@@ -4999,35 +4844,32 @@
       <c r="F57" t="s">
         <v>395</v>
       </c>
-      <c r="G57">
-        <v>49</v>
-      </c>
-      <c r="H57" s="100">
+      <c r="G57" s="73">
         <v>45891</v>
       </c>
+      <c r="H57" t="s">
+        <v>382</v>
+      </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>88</v>
-      </c>
-      <c r="L57" t="s">
-        <v>241</v>
-      </c>
-      <c r="T57">
+        <v>241</v>
+      </c>
+      <c r="S57">
         <v>0</v>
       </c>
-      <c r="U57" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y57" t="s">
+      <c r="T57" t="s">
+        <v>383</v>
+      </c>
+      <c r="X57" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>60.537523000177302</v>
       </c>
@@ -5037,32 +4879,29 @@
       <c r="F58" t="s">
         <v>397</v>
       </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58" s="100">
+      <c r="G58" s="73">
         <v>45877</v>
       </c>
+      <c r="H58" t="s">
+        <v>382</v>
+      </c>
       <c r="I58" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J58" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" t="s">
-        <v>241</v>
-      </c>
-      <c r="T58">
+        <v>241</v>
+      </c>
+      <c r="S58">
         <v>0</v>
       </c>
-      <c r="U58" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>60.537523000177302</v>
       </c>
@@ -5072,32 +4911,29 @@
       <c r="F59" t="s">
         <v>397</v>
       </c>
-      <c r="G59">
-        <v>51</v>
-      </c>
-      <c r="H59" s="100">
+      <c r="G59" s="73">
         <v>45877</v>
       </c>
+      <c r="H59" t="s">
+        <v>382</v>
+      </c>
       <c r="I59" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J59" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K59" t="s">
-        <v>156</v>
-      </c>
-      <c r="L59" t="s">
-        <v>241</v>
-      </c>
-      <c r="T59">
+        <v>241</v>
+      </c>
+      <c r="S59">
         <v>0</v>
       </c>
-      <c r="U59" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>60.537523000177302</v>
       </c>
@@ -5107,32 +4943,29 @@
       <c r="F60" t="s">
         <v>397</v>
       </c>
-      <c r="G60">
-        <v>52</v>
-      </c>
-      <c r="H60" s="100">
+      <c r="G60" s="73">
         <v>45877</v>
       </c>
+      <c r="H60" t="s">
+        <v>382</v>
+      </c>
       <c r="I60" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J60" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
-      </c>
-      <c r="L60" t="s">
-        <v>241</v>
-      </c>
-      <c r="T60">
+        <v>241</v>
+      </c>
+      <c r="S60">
         <v>0</v>
       </c>
-      <c r="U60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60.537523000177302</v>
       </c>
@@ -5142,32 +4975,29 @@
       <c r="F61" t="s">
         <v>397</v>
       </c>
-      <c r="G61">
-        <v>53</v>
-      </c>
-      <c r="H61" s="100">
+      <c r="G61" s="73">
         <v>45877</v>
       </c>
+      <c r="H61" t="s">
+        <v>382</v>
+      </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J61" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K61" t="s">
-        <v>156</v>
-      </c>
-      <c r="L61" t="s">
-        <v>241</v>
-      </c>
-      <c r="T61">
+        <v>241</v>
+      </c>
+      <c r="S61">
         <v>0</v>
       </c>
-      <c r="U61" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>60.537523000177302</v>
       </c>
@@ -5177,32 +5007,29 @@
       <c r="F62" t="s">
         <v>397</v>
       </c>
-      <c r="G62">
-        <v>54</v>
-      </c>
-      <c r="H62" s="100">
+      <c r="G62" s="73">
         <v>45877</v>
       </c>
+      <c r="H62" t="s">
+        <v>382</v>
+      </c>
       <c r="I62" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s">
-        <v>156</v>
-      </c>
-      <c r="L62" t="s">
-        <v>241</v>
-      </c>
-      <c r="T62">
+        <v>241</v>
+      </c>
+      <c r="S62">
         <v>0</v>
       </c>
-      <c r="U62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60.537523000177302</v>
       </c>
@@ -5212,32 +5039,29 @@
       <c r="F63" t="s">
         <v>397</v>
       </c>
-      <c r="G63">
-        <v>55</v>
-      </c>
-      <c r="H63" s="100">
+      <c r="G63" s="73">
         <v>45877</v>
       </c>
+      <c r="H63" t="s">
+        <v>382</v>
+      </c>
       <c r="I63" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J63" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K63" t="s">
-        <v>378</v>
-      </c>
-      <c r="L63" t="s">
-        <v>241</v>
-      </c>
-      <c r="T63">
+        <v>241</v>
+      </c>
+      <c r="S63">
         <v>0</v>
       </c>
-      <c r="U63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>60.537523000177302</v>
       </c>
@@ -5247,32 +5071,29 @@
       <c r="F64" t="s">
         <v>397</v>
       </c>
-      <c r="G64">
-        <v>56</v>
-      </c>
-      <c r="H64" s="100">
+      <c r="G64" s="73">
         <v>45877</v>
       </c>
+      <c r="H64" t="s">
+        <v>382</v>
+      </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K64" t="s">
-        <v>378</v>
-      </c>
-      <c r="L64" t="s">
-        <v>241</v>
-      </c>
-      <c r="T64">
+        <v>241</v>
+      </c>
+      <c r="S64">
         <v>0</v>
       </c>
-      <c r="U64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>60.537523000177302</v>
       </c>
@@ -5282,32 +5103,29 @@
       <c r="F65" t="s">
         <v>397</v>
       </c>
-      <c r="G65">
-        <v>57</v>
-      </c>
-      <c r="H65" s="100">
+      <c r="G65" s="73">
         <v>45877</v>
       </c>
+      <c r="H65" t="s">
+        <v>382</v>
+      </c>
       <c r="I65" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J65" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K65" t="s">
-        <v>378</v>
-      </c>
-      <c r="L65" t="s">
-        <v>241</v>
-      </c>
-      <c r="T65">
+        <v>241</v>
+      </c>
+      <c r="S65">
         <v>0</v>
       </c>
-      <c r="U65" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>60.537523000177302</v>
       </c>
@@ -5317,32 +5135,29 @@
       <c r="F66" t="s">
         <v>397</v>
       </c>
-      <c r="G66">
-        <v>58</v>
-      </c>
-      <c r="H66" s="100">
+      <c r="G66" s="73">
         <v>45877</v>
       </c>
+      <c r="H66" t="s">
+        <v>382</v>
+      </c>
       <c r="I66" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J66" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K66" t="s">
-        <v>378</v>
-      </c>
-      <c r="L66" t="s">
-        <v>241</v>
-      </c>
-      <c r="T66">
+        <v>241</v>
+      </c>
+      <c r="S66">
         <v>0</v>
       </c>
-      <c r="U66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>60.537523000177302</v>
       </c>
@@ -5352,32 +5167,29 @@
       <c r="F67" t="s">
         <v>397</v>
       </c>
-      <c r="G67">
-        <v>59</v>
-      </c>
-      <c r="H67" s="100">
+      <c r="G67" s="73">
         <v>45877</v>
       </c>
+      <c r="H67" t="s">
+        <v>382</v>
+      </c>
       <c r="I67" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K67" t="s">
-        <v>378</v>
-      </c>
-      <c r="L67" t="s">
-        <v>241</v>
-      </c>
-      <c r="T67">
+        <v>241</v>
+      </c>
+      <c r="S67">
         <v>0</v>
       </c>
-      <c r="U67" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>60.537523000177302</v>
       </c>
@@ -5387,32 +5199,29 @@
       <c r="F68" t="s">
         <v>397</v>
       </c>
-      <c r="G68">
-        <v>60</v>
-      </c>
-      <c r="H68" s="100">
+      <c r="G68" s="73">
         <v>45877</v>
       </c>
+      <c r="H68" t="s">
+        <v>382</v>
+      </c>
       <c r="I68" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s">
-        <v>78</v>
-      </c>
-      <c r="L68" t="s">
-        <v>241</v>
-      </c>
-      <c r="T68">
+        <v>241</v>
+      </c>
+      <c r="S68">
         <v>1</v>
       </c>
-      <c r="U68" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>60.537523000177302</v>
       </c>
@@ -5422,32 +5231,29 @@
       <c r="F69" t="s">
         <v>397</v>
       </c>
-      <c r="G69">
-        <v>61</v>
-      </c>
-      <c r="H69" s="100">
+      <c r="G69" s="73">
         <v>45877</v>
       </c>
+      <c r="H69" t="s">
+        <v>382</v>
+      </c>
       <c r="I69" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J69" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s">
-        <v>78</v>
-      </c>
-      <c r="L69" t="s">
-        <v>241</v>
-      </c>
-      <c r="T69">
+        <v>241</v>
+      </c>
+      <c r="S69">
         <v>1</v>
       </c>
-      <c r="U69" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>60.537523000177302</v>
       </c>
@@ -5457,32 +5263,29 @@
       <c r="F70" t="s">
         <v>397</v>
       </c>
-      <c r="G70">
-        <v>62</v>
-      </c>
-      <c r="H70" s="100">
+      <c r="G70" s="73">
         <v>45877</v>
       </c>
+      <c r="H70" t="s">
+        <v>382</v>
+      </c>
       <c r="I70" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s">
-        <v>78</v>
-      </c>
-      <c r="L70" t="s">
-        <v>241</v>
-      </c>
-      <c r="T70">
+        <v>241</v>
+      </c>
+      <c r="S70">
         <v>1</v>
       </c>
-      <c r="U70" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>60.537523000177302</v>
       </c>
@@ -5492,32 +5295,29 @@
       <c r="F71" t="s">
         <v>397</v>
       </c>
-      <c r="G71">
-        <v>63</v>
-      </c>
-      <c r="H71" s="100">
+      <c r="G71" s="73">
         <v>45877</v>
       </c>
+      <c r="H71" t="s">
+        <v>382</v>
+      </c>
       <c r="I71" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J71" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s">
-        <v>78</v>
-      </c>
-      <c r="L71" t="s">
-        <v>241</v>
-      </c>
-      <c r="T71">
+        <v>241</v>
+      </c>
+      <c r="S71">
         <v>1</v>
       </c>
-      <c r="U71" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>60.537523000177302</v>
       </c>
@@ -5527,32 +5327,29 @@
       <c r="F72" t="s">
         <v>397</v>
       </c>
-      <c r="G72">
-        <v>64</v>
-      </c>
-      <c r="H72" s="100">
+      <c r="G72" s="73">
         <v>45877</v>
       </c>
+      <c r="H72" t="s">
+        <v>382</v>
+      </c>
       <c r="I72" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J72" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>78</v>
-      </c>
-      <c r="L72" t="s">
-        <v>241</v>
-      </c>
-      <c r="T72">
+        <v>241</v>
+      </c>
+      <c r="S72">
         <v>1</v>
       </c>
-      <c r="U72" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>60.537523000177302</v>
       </c>
@@ -5562,32 +5359,29 @@
       <c r="F73" t="s">
         <v>397</v>
       </c>
-      <c r="G73">
-        <v>65</v>
-      </c>
-      <c r="H73" s="100">
+      <c r="G73" s="73">
         <v>45877</v>
       </c>
+      <c r="H73" t="s">
+        <v>382</v>
+      </c>
       <c r="I73" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J73" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>88</v>
-      </c>
-      <c r="L73" t="s">
-        <v>241</v>
-      </c>
-      <c r="T73">
+        <v>241</v>
+      </c>
+      <c r="S73">
         <v>0</v>
       </c>
-      <c r="U73" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>60.537523000177302</v>
       </c>
@@ -5597,32 +5391,29 @@
       <c r="F74" t="s">
         <v>397</v>
       </c>
-      <c r="G74">
-        <v>66</v>
-      </c>
-      <c r="H74" s="100">
+      <c r="G74" s="73">
         <v>45877</v>
       </c>
+      <c r="H74" t="s">
+        <v>382</v>
+      </c>
       <c r="I74" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>88</v>
-      </c>
-      <c r="L74" t="s">
-        <v>241</v>
-      </c>
-      <c r="T74">
+        <v>241</v>
+      </c>
+      <c r="S74">
         <v>0</v>
       </c>
-      <c r="U74" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>60.537523000177302</v>
       </c>
@@ -5632,32 +5423,29 @@
       <c r="F75" t="s">
         <v>397</v>
       </c>
-      <c r="G75">
-        <v>67</v>
-      </c>
-      <c r="H75" s="100">
+      <c r="G75" s="73">
         <v>45877</v>
       </c>
+      <c r="H75" t="s">
+        <v>382</v>
+      </c>
       <c r="I75" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>88</v>
-      </c>
-      <c r="L75" t="s">
-        <v>241</v>
-      </c>
-      <c r="T75">
+        <v>241</v>
+      </c>
+      <c r="S75">
         <v>0</v>
       </c>
-      <c r="U75" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>60.537523000177302</v>
       </c>
@@ -5667,32 +5455,29 @@
       <c r="F76" t="s">
         <v>397</v>
       </c>
-      <c r="G76">
-        <v>68</v>
-      </c>
-      <c r="H76" s="100">
+      <c r="G76" s="73">
         <v>45877</v>
       </c>
+      <c r="H76" t="s">
+        <v>382</v>
+      </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>88</v>
-      </c>
-      <c r="L76" t="s">
-        <v>241</v>
-      </c>
-      <c r="T76">
+        <v>241</v>
+      </c>
+      <c r="S76">
         <v>0</v>
       </c>
-      <c r="U76" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>60.537523000177302</v>
       </c>
@@ -5702,32 +5487,29 @@
       <c r="F77" t="s">
         <v>397</v>
       </c>
-      <c r="G77">
-        <v>69</v>
-      </c>
-      <c r="H77" s="100">
+      <c r="G77" s="73">
         <v>45877</v>
       </c>
+      <c r="H77" t="s">
+        <v>382</v>
+      </c>
       <c r="I77" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>88</v>
-      </c>
-      <c r="L77" t="s">
-        <v>241</v>
-      </c>
-      <c r="T77">
+        <v>241</v>
+      </c>
+      <c r="S77">
         <v>0</v>
       </c>
-      <c r="U77" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>60.537523000177302</v>
       </c>
@@ -5737,35 +5519,32 @@
       <c r="F78" t="s">
         <v>397</v>
       </c>
-      <c r="G78">
-        <v>70</v>
-      </c>
-      <c r="H78" s="100">
+      <c r="G78" s="73">
         <v>45877</v>
       </c>
+      <c r="H78" t="s">
+        <v>382</v>
+      </c>
       <c r="I78" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J78" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K78" t="s">
-        <v>170</v>
-      </c>
-      <c r="L78" t="s">
-        <v>241</v>
-      </c>
-      <c r="T78">
+        <v>241</v>
+      </c>
+      <c r="S78">
         <v>4</v>
       </c>
-      <c r="U78" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y78" t="s">
+      <c r="T78" t="s">
+        <v>383</v>
+      </c>
+      <c r="X78" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>60.537523000177302</v>
       </c>
@@ -5775,35 +5554,32 @@
       <c r="F79" t="s">
         <v>397</v>
       </c>
-      <c r="G79">
-        <v>71</v>
-      </c>
-      <c r="H79" s="100">
+      <c r="G79" s="73">
         <v>45877</v>
       </c>
+      <c r="H79" t="s">
+        <v>382</v>
+      </c>
       <c r="I79" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J79" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K79" t="s">
-        <v>170</v>
-      </c>
-      <c r="L79" t="s">
-        <v>241</v>
-      </c>
-      <c r="T79">
+        <v>241</v>
+      </c>
+      <c r="S79">
         <v>4</v>
       </c>
-      <c r="U79" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y79" t="s">
+      <c r="T79" t="s">
+        <v>383</v>
+      </c>
+      <c r="X79" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>60.537523000177302</v>
       </c>
@@ -5813,35 +5589,32 @@
       <c r="F80" t="s">
         <v>397</v>
       </c>
-      <c r="G80">
-        <v>72</v>
-      </c>
-      <c r="H80" s="100">
+      <c r="G80" s="73">
         <v>45877</v>
       </c>
+      <c r="H80" t="s">
+        <v>382</v>
+      </c>
       <c r="I80" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K80" t="s">
-        <v>170</v>
-      </c>
-      <c r="L80" t="s">
-        <v>241</v>
-      </c>
-      <c r="T80">
+        <v>241</v>
+      </c>
+      <c r="S80">
         <v>4</v>
       </c>
-      <c r="U80" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y80" t="s">
+      <c r="T80" t="s">
+        <v>383</v>
+      </c>
+      <c r="X80" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>60.537523000177302</v>
       </c>
@@ -5851,35 +5624,32 @@
       <c r="F81" t="s">
         <v>397</v>
       </c>
-      <c r="G81">
-        <v>73</v>
-      </c>
-      <c r="H81" s="100">
+      <c r="G81" s="73">
         <v>45877</v>
       </c>
+      <c r="H81" t="s">
+        <v>382</v>
+      </c>
       <c r="I81" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J81" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K81" t="s">
-        <v>170</v>
-      </c>
-      <c r="L81" t="s">
-        <v>241</v>
-      </c>
-      <c r="T81">
+        <v>241</v>
+      </c>
+      <c r="S81">
         <v>4</v>
       </c>
-      <c r="U81" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y81" t="s">
+      <c r="T81" t="s">
+        <v>383</v>
+      </c>
+      <c r="X81" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>60.537523000177302</v>
       </c>
@@ -5889,35 +5659,32 @@
       <c r="F82" t="s">
         <v>397</v>
       </c>
-      <c r="G82">
-        <v>74</v>
-      </c>
-      <c r="H82" s="100">
+      <c r="G82" s="73">
         <v>45877</v>
       </c>
+      <c r="H82" t="s">
+        <v>382</v>
+      </c>
       <c r="I82" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s">
-        <v>170</v>
-      </c>
-      <c r="L82" t="s">
-        <v>241</v>
-      </c>
-      <c r="T82">
+        <v>241</v>
+      </c>
+      <c r="S82">
         <v>4</v>
       </c>
-      <c r="U82" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y82" t="s">
+      <c r="T82" t="s">
+        <v>383</v>
+      </c>
+      <c r="X82" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>60.803173966177297</v>
       </c>
@@ -5927,32 +5694,29 @@
       <c r="F83" t="s">
         <v>398</v>
       </c>
-      <c r="G83">
-        <v>75</v>
-      </c>
-      <c r="H83" s="100">
+      <c r="G83" s="73">
         <v>45869</v>
       </c>
+      <c r="H83" t="s">
+        <v>382</v>
+      </c>
       <c r="I83" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J83" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>94</v>
-      </c>
-      <c r="L83" t="s">
-        <v>241</v>
-      </c>
-      <c r="T83">
+        <v>241</v>
+      </c>
+      <c r="S83">
         <v>2</v>
       </c>
-      <c r="U83" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>60.803450778126802</v>
       </c>
@@ -5962,32 +5726,29 @@
       <c r="F84" t="s">
         <v>398</v>
       </c>
-      <c r="G84">
-        <v>76</v>
-      </c>
-      <c r="H84" s="100">
+      <c r="G84" s="73">
         <v>45869</v>
       </c>
+      <c r="H84" t="s">
+        <v>382</v>
+      </c>
       <c r="I84" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>94</v>
-      </c>
-      <c r="L84" t="s">
-        <v>241</v>
-      </c>
-      <c r="T84">
+        <v>241</v>
+      </c>
+      <c r="S84">
         <v>3</v>
       </c>
-      <c r="U84" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>60.8035789399961</v>
       </c>
@@ -5997,32 +5758,29 @@
       <c r="F85" t="s">
         <v>398</v>
       </c>
-      <c r="G85">
-        <v>77</v>
-      </c>
-      <c r="H85" s="100">
+      <c r="G85" s="73">
         <v>45869</v>
       </c>
+      <c r="H85" t="s">
+        <v>382</v>
+      </c>
       <c r="I85" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J85" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>94</v>
-      </c>
-      <c r="L85" t="s">
-        <v>241</v>
-      </c>
-      <c r="T85">
+        <v>241</v>
+      </c>
+      <c r="S85">
         <v>1</v>
       </c>
-      <c r="U85" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="86" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>60.801974210310398</v>
       </c>
@@ -6032,32 +5790,29 @@
       <c r="F86" t="s">
         <v>398</v>
       </c>
-      <c r="G86">
-        <v>78</v>
-      </c>
-      <c r="H86" s="100">
+      <c r="G86" s="73">
         <v>45869</v>
       </c>
+      <c r="H86" t="s">
+        <v>382</v>
+      </c>
       <c r="I86" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J86" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s">
-        <v>94</v>
-      </c>
-      <c r="L86" t="s">
-        <v>241</v>
-      </c>
-      <c r="T86">
+        <v>241</v>
+      </c>
+      <c r="S86">
         <v>8</v>
       </c>
-      <c r="U86" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="87" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>60.802302426709701</v>
       </c>
@@ -6067,35 +5822,32 @@
       <c r="F87" t="s">
         <v>398</v>
       </c>
-      <c r="G87">
-        <v>79</v>
-      </c>
-      <c r="H87" s="100">
+      <c r="G87" s="73">
         <v>45869</v>
       </c>
+      <c r="H87" t="s">
+        <v>382</v>
+      </c>
       <c r="I87" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J87" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s">
-        <v>94</v>
-      </c>
-      <c r="L87" t="s">
-        <v>241</v>
-      </c>
-      <c r="T87">
+        <v>241</v>
+      </c>
+      <c r="S87">
         <v>7</v>
       </c>
-      <c r="U87" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y87" t="s">
+      <c r="T87" t="s">
+        <v>383</v>
+      </c>
+      <c r="X87" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>60.741315451557703</v>
       </c>
@@ -6105,32 +5857,29 @@
       <c r="F88" t="s">
         <v>398</v>
       </c>
-      <c r="G88">
-        <v>80</v>
-      </c>
-      <c r="H88" s="100">
+      <c r="G88" s="73">
         <v>45869</v>
       </c>
+      <c r="H88" t="s">
+        <v>382</v>
+      </c>
       <c r="I88" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s">
-        <v>94</v>
-      </c>
-      <c r="L88" t="s">
-        <v>241</v>
-      </c>
-      <c r="T88">
+        <v>241</v>
+      </c>
+      <c r="S88">
         <v>4</v>
       </c>
-      <c r="U88" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>60.7414343794077</v>
       </c>
@@ -6140,35 +5889,32 @@
       <c r="F89" t="s">
         <v>398</v>
       </c>
-      <c r="G89">
-        <v>81</v>
-      </c>
-      <c r="H89" s="100">
+      <c r="G89" s="73">
         <v>45869</v>
       </c>
+      <c r="H89" t="s">
+        <v>382</v>
+      </c>
       <c r="I89" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>94</v>
-      </c>
-      <c r="L89" t="s">
-        <v>241</v>
-      </c>
-      <c r="T89">
+        <v>241</v>
+      </c>
+      <c r="S89">
         <v>1</v>
       </c>
-      <c r="U89" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y89" t="s">
+      <c r="T89" t="s">
+        <v>383</v>
+      </c>
+      <c r="X89" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="90" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>60.741585474346103</v>
       </c>
@@ -6178,32 +5924,29 @@
       <c r="F90" t="s">
         <v>398</v>
       </c>
-      <c r="G90">
-        <v>82</v>
-      </c>
-      <c r="H90" s="100">
+      <c r="G90" s="73">
         <v>45869</v>
       </c>
+      <c r="H90" t="s">
+        <v>382</v>
+      </c>
       <c r="I90" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s">
-        <v>94</v>
-      </c>
-      <c r="L90" t="s">
-        <v>241</v>
-      </c>
-      <c r="T90">
+        <v>241</v>
+      </c>
+      <c r="S90">
         <v>4</v>
       </c>
-      <c r="U90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>60.795746166476299</v>
       </c>
@@ -6213,32 +5956,29 @@
       <c r="F91" t="s">
         <v>398</v>
       </c>
-      <c r="G91">
-        <v>83</v>
-      </c>
-      <c r="H91" s="100">
+      <c r="G91" s="73">
         <v>45868</v>
       </c>
+      <c r="H91" t="s">
+        <v>382</v>
+      </c>
       <c r="I91" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J91" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>88</v>
-      </c>
-      <c r="L91" t="s">
-        <v>241</v>
-      </c>
-      <c r="T91">
+        <v>241</v>
+      </c>
+      <c r="S91">
         <v>0</v>
       </c>
-      <c r="U91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>60.795746166476299</v>
       </c>
@@ -6248,32 +5988,29 @@
       <c r="F92" t="s">
         <v>398</v>
       </c>
-      <c r="G92">
-        <v>84</v>
-      </c>
-      <c r="H92" s="100">
+      <c r="G92" s="73">
         <v>45868</v>
       </c>
+      <c r="H92" t="s">
+        <v>382</v>
+      </c>
       <c r="I92" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J92" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s">
-        <v>88</v>
-      </c>
-      <c r="L92" t="s">
-        <v>241</v>
-      </c>
-      <c r="T92">
+        <v>241</v>
+      </c>
+      <c r="S92">
         <v>0</v>
       </c>
-      <c r="U92" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>60.795746166476299</v>
       </c>
@@ -6283,32 +6020,29 @@
       <c r="F93" t="s">
         <v>398</v>
       </c>
-      <c r="G93">
-        <v>85</v>
-      </c>
-      <c r="H93" s="100">
+      <c r="G93" s="73">
         <v>45868</v>
       </c>
+      <c r="H93" t="s">
+        <v>382</v>
+      </c>
       <c r="I93" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J93" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K93" t="s">
-        <v>94</v>
-      </c>
-      <c r="L93" t="s">
-        <v>241</v>
-      </c>
-      <c r="T93">
+        <v>241</v>
+      </c>
+      <c r="S93">
         <v>1</v>
       </c>
-      <c r="U93" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T93" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>60.795746166476299</v>
       </c>
@@ -6318,32 +6052,29 @@
       <c r="F94" t="s">
         <v>398</v>
       </c>
-      <c r="G94">
-        <v>86</v>
-      </c>
-      <c r="H94" s="100">
+      <c r="G94" s="73">
         <v>45868</v>
       </c>
+      <c r="H94" t="s">
+        <v>382</v>
+      </c>
       <c r="I94" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J94" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
-        <v>94</v>
-      </c>
-      <c r="L94" t="s">
-        <v>241</v>
-      </c>
-      <c r="T94">
+        <v>241</v>
+      </c>
+      <c r="S94">
         <v>1</v>
       </c>
-      <c r="U94" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="95" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T94" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>60.796001666878901</v>
       </c>
@@ -6353,32 +6084,29 @@
       <c r="F95" t="s">
         <v>398</v>
       </c>
-      <c r="G95">
-        <v>87</v>
-      </c>
-      <c r="H95" s="100">
+      <c r="G95" s="73">
         <v>45868</v>
       </c>
+      <c r="H95" t="s">
+        <v>382</v>
+      </c>
       <c r="I95" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J95" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>88</v>
-      </c>
-      <c r="L95" t="s">
         <v>245</v>
       </c>
-      <c r="T95">
+      <c r="S95">
         <v>0</v>
       </c>
-      <c r="U95" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="96" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>60.796001666878901</v>
       </c>
@@ -6388,32 +6116,29 @@
       <c r="F96" t="s">
         <v>398</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="73">
+        <v>45868</v>
+      </c>
+      <c r="H96" t="s">
+        <v>382</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="s">
         <v>88</v>
       </c>
-      <c r="H96" s="100">
-        <v>45868</v>
-      </c>
-      <c r="I96" t="s">
-        <v>382</v>
-      </c>
-      <c r="J96" t="s">
-        <v>11</v>
-      </c>
       <c r="K96" t="s">
-        <v>88</v>
-      </c>
-      <c r="L96" t="s">
         <v>245</v>
       </c>
-      <c r="T96">
+      <c r="S96">
         <v>0</v>
       </c>
-      <c r="U96" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>60.796001666878901</v>
       </c>
@@ -6423,32 +6148,29 @@
       <c r="F97" t="s">
         <v>398</v>
       </c>
-      <c r="G97">
-        <v>89</v>
-      </c>
-      <c r="H97" s="100">
+      <c r="G97" s="73">
         <v>45868</v>
       </c>
+      <c r="H97" t="s">
+        <v>382</v>
+      </c>
       <c r="I97" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>94</v>
-      </c>
-      <c r="L97" t="s">
         <v>245</v>
       </c>
-      <c r="T97">
+      <c r="S97">
         <v>0</v>
       </c>
-      <c r="U97" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>60.796001666878901</v>
       </c>
@@ -6458,32 +6180,29 @@
       <c r="F98" t="s">
         <v>398</v>
       </c>
-      <c r="G98">
-        <v>90</v>
-      </c>
-      <c r="H98" s="100">
+      <c r="G98" s="73">
         <v>45868</v>
       </c>
+      <c r="H98" t="s">
+        <v>382</v>
+      </c>
       <c r="I98" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J98" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s">
-        <v>94</v>
-      </c>
-      <c r="L98" t="s">
         <v>245</v>
       </c>
-      <c r="T98">
+      <c r="S98">
         <v>0</v>
       </c>
-      <c r="U98" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>60.796243833377801</v>
       </c>
@@ -6493,32 +6212,29 @@
       <c r="F99" t="s">
         <v>398</v>
       </c>
-      <c r="G99">
-        <v>91</v>
-      </c>
-      <c r="H99" s="100">
+      <c r="G99" s="73">
         <v>45868</v>
       </c>
+      <c r="H99" t="s">
+        <v>382</v>
+      </c>
       <c r="I99" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J99" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s">
-        <v>88</v>
-      </c>
-      <c r="L99" t="s">
-        <v>241</v>
-      </c>
-      <c r="T99">
+        <v>241</v>
+      </c>
+      <c r="S99">
         <v>0</v>
       </c>
-      <c r="U99" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>60.796384833452002</v>
       </c>
@@ -6528,32 +6244,29 @@
       <c r="F100" t="s">
         <v>398</v>
       </c>
-      <c r="G100">
-        <v>92</v>
-      </c>
-      <c r="H100" s="100">
+      <c r="G100" s="73">
         <v>45868</v>
       </c>
+      <c r="H100" t="s">
+        <v>382</v>
+      </c>
       <c r="I100" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J100" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s">
-        <v>88</v>
-      </c>
-      <c r="L100" t="s">
-        <v>241</v>
-      </c>
-      <c r="T100">
+        <v>241</v>
+      </c>
+      <c r="S100">
         <v>1</v>
       </c>
-      <c r="U100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>60.797248000059</v>
       </c>
@@ -6563,32 +6276,29 @@
       <c r="F101" t="s">
         <v>398</v>
       </c>
-      <c r="G101">
-        <v>93</v>
-      </c>
-      <c r="H101" s="100">
+      <c r="G101" s="73">
         <v>45868</v>
       </c>
+      <c r="H101" t="s">
+        <v>382</v>
+      </c>
       <c r="I101" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J101" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s">
-        <v>88</v>
-      </c>
-      <c r="L101" t="s">
-        <v>241</v>
-      </c>
-      <c r="T101">
+        <v>241</v>
+      </c>
+      <c r="S101">
         <v>0</v>
       </c>
-      <c r="U101" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="102" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>60.798119166511299</v>
       </c>
@@ -6598,32 +6308,29 @@
       <c r="F102" t="s">
         <v>398</v>
       </c>
-      <c r="G102">
-        <v>94</v>
-      </c>
-      <c r="H102" s="100">
+      <c r="G102" s="73">
         <v>45868</v>
       </c>
+      <c r="H102" t="s">
+        <v>382</v>
+      </c>
       <c r="I102" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J102" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s">
-        <v>88</v>
-      </c>
-      <c r="L102" t="s">
-        <v>241</v>
-      </c>
-      <c r="T102">
+        <v>241</v>
+      </c>
+      <c r="S102">
         <v>0</v>
       </c>
-      <c r="U102" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T102" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>60.798119166511299</v>
       </c>
@@ -6633,32 +6340,29 @@
       <c r="F103" t="s">
         <v>398</v>
       </c>
-      <c r="G103">
-        <v>95</v>
-      </c>
-      <c r="H103" s="100">
+      <c r="G103" s="73">
         <v>45868</v>
       </c>
+      <c r="H103" t="s">
+        <v>382</v>
+      </c>
       <c r="I103" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J103" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K103" t="s">
-        <v>88</v>
-      </c>
-      <c r="L103" t="s">
-        <v>241</v>
-      </c>
-      <c r="T103">
+        <v>241</v>
+      </c>
+      <c r="S103">
         <v>0</v>
       </c>
-      <c r="U103" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="104" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>60.798119166511299</v>
       </c>
@@ -6668,32 +6372,29 @@
       <c r="F104" t="s">
         <v>398</v>
       </c>
-      <c r="G104">
-        <v>96</v>
-      </c>
-      <c r="H104" s="100">
+      <c r="G104" s="73">
         <v>45868</v>
       </c>
+      <c r="H104" t="s">
+        <v>382</v>
+      </c>
       <c r="I104" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J104" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K104" t="s">
-        <v>94</v>
-      </c>
-      <c r="L104" t="s">
-        <v>241</v>
-      </c>
-      <c r="T104">
+        <v>241</v>
+      </c>
+      <c r="S104">
         <v>0</v>
       </c>
-      <c r="U104" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T104" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>60.798119166511299</v>
       </c>
@@ -6703,32 +6404,29 @@
       <c r="F105" t="s">
         <v>398</v>
       </c>
-      <c r="G105">
-        <v>97</v>
-      </c>
-      <c r="H105" s="100">
+      <c r="G105" s="73">
         <v>45868</v>
       </c>
+      <c r="H105" t="s">
+        <v>382</v>
+      </c>
       <c r="I105" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J105" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K105" t="s">
-        <v>94</v>
-      </c>
-      <c r="L105" t="s">
-        <v>241</v>
-      </c>
-      <c r="T105">
+        <v>241</v>
+      </c>
+      <c r="S105">
         <v>0</v>
       </c>
-      <c r="U105" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="106" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T105" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>60.622184666450899</v>
       </c>
@@ -6738,32 +6436,29 @@
       <c r="F106" t="s">
         <v>393</v>
       </c>
-      <c r="G106">
-        <v>98</v>
-      </c>
-      <c r="H106" s="100">
+      <c r="G106" s="73">
         <v>45866</v>
       </c>
+      <c r="H106" t="s">
+        <v>382</v>
+      </c>
       <c r="I106" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="K106" t="s">
-        <v>186</v>
-      </c>
-      <c r="L106" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S106" t="s">
+        <v>384</v>
       </c>
       <c r="T106" t="s">
-        <v>384</v>
-      </c>
-      <c r="U106" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>60.622267499818498</v>
       </c>
@@ -6773,32 +6468,29 @@
       <c r="F107" t="s">
         <v>393</v>
       </c>
-      <c r="G107">
-        <v>99</v>
-      </c>
-      <c r="H107" s="100">
+      <c r="G107" s="73">
         <v>45866</v>
       </c>
+      <c r="H107" t="s">
+        <v>382</v>
+      </c>
       <c r="I107" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="K107" t="s">
-        <v>186</v>
-      </c>
-      <c r="L107" t="s">
-        <v>241</v>
-      </c>
-      <c r="T107">
+        <v>241</v>
+      </c>
+      <c r="S107">
         <v>0</v>
       </c>
-      <c r="U107" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>60.622374833506797</v>
       </c>
@@ -6808,35 +6500,32 @@
       <c r="F108" t="s">
         <v>393</v>
       </c>
-      <c r="G108">
-        <v>100</v>
-      </c>
-      <c r="H108" s="100">
+      <c r="G108" s="73">
         <v>45866</v>
       </c>
+      <c r="H108" t="s">
+        <v>382</v>
+      </c>
       <c r="I108" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="K108" t="s">
-        <v>210</v>
-      </c>
-      <c r="L108" t="s">
         <v>269</v>
       </c>
-      <c r="T108">
+      <c r="S108">
         <v>1</v>
       </c>
-      <c r="U108" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y108" t="s">
+      <c r="T108" t="s">
+        <v>383</v>
+      </c>
+      <c r="X108" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>60.620607833156299</v>
       </c>
@@ -6846,35 +6535,32 @@
       <c r="F109" t="s">
         <v>393</v>
       </c>
-      <c r="G109">
-        <v>101</v>
-      </c>
-      <c r="H109" s="100">
+      <c r="G109" s="73">
         <v>45866</v>
       </c>
+      <c r="H109" t="s">
+        <v>382</v>
+      </c>
       <c r="I109" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="K109" t="s">
-        <v>129</v>
-      </c>
-      <c r="L109" t="s">
         <v>269</v>
+      </c>
+      <c r="S109" t="s">
+        <v>384</v>
       </c>
       <c r="T109" t="s">
         <v>384</v>
       </c>
-      <c r="U109" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y109" t="s">
+      <c r="X109" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>60.620607833156299</v>
       </c>
@@ -6884,35 +6570,32 @@
       <c r="F110" t="s">
         <v>393</v>
       </c>
-      <c r="G110">
-        <v>102</v>
-      </c>
-      <c r="H110" s="100">
+      <c r="G110" s="73">
         <v>45866</v>
       </c>
+      <c r="H110" t="s">
+        <v>382</v>
+      </c>
       <c r="I110" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="K110" t="s">
-        <v>129</v>
-      </c>
-      <c r="L110" t="s">
         <v>269</v>
+      </c>
+      <c r="S110" t="s">
+        <v>384</v>
       </c>
       <c r="T110" t="s">
         <v>384</v>
       </c>
-      <c r="U110" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y110" t="s">
+      <c r="X110" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="111" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>60.620607833156299</v>
       </c>
@@ -6922,35 +6605,32 @@
       <c r="F111" t="s">
         <v>393</v>
       </c>
-      <c r="G111">
-        <v>103</v>
-      </c>
-      <c r="H111" s="100">
+      <c r="G111" s="73">
         <v>45866</v>
       </c>
+      <c r="H111" t="s">
+        <v>382</v>
+      </c>
       <c r="I111" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="K111" t="s">
-        <v>129</v>
-      </c>
-      <c r="L111" t="s">
         <v>269</v>
+      </c>
+      <c r="S111" t="s">
+        <v>384</v>
       </c>
       <c r="T111" t="s">
         <v>384</v>
       </c>
-      <c r="U111" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y111" t="s">
+      <c r="X111" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>60.620607833156299</v>
       </c>
@@ -6960,35 +6640,32 @@
       <c r="F112" t="s">
         <v>393</v>
       </c>
-      <c r="G112">
-        <v>104</v>
-      </c>
-      <c r="H112" s="100">
+      <c r="G112" s="73">
         <v>45866</v>
       </c>
+      <c r="H112" t="s">
+        <v>382</v>
+      </c>
       <c r="I112" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K112" t="s">
-        <v>373</v>
-      </c>
-      <c r="L112" t="s">
         <v>269</v>
       </c>
+      <c r="S112" t="s">
+        <v>384</v>
+      </c>
       <c r="T112" t="s">
-        <v>384</v>
-      </c>
-      <c r="U112" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y112" t="s">
+        <v>383</v>
+      </c>
+      <c r="X112" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>60.620607833156299</v>
       </c>
@@ -6998,35 +6675,32 @@
       <c r="F113" t="s">
         <v>393</v>
       </c>
-      <c r="G113">
-        <v>105</v>
-      </c>
-      <c r="H113" s="100">
+      <c r="G113" s="73">
         <v>45866</v>
       </c>
+      <c r="H113" t="s">
+        <v>382</v>
+      </c>
       <c r="I113" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K113" t="s">
-        <v>373</v>
-      </c>
-      <c r="L113" t="s">
         <v>269</v>
       </c>
+      <c r="S113" t="s">
+        <v>384</v>
+      </c>
       <c r="T113" t="s">
-        <v>384</v>
-      </c>
-      <c r="U113" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y113" t="s">
+        <v>383</v>
+      </c>
+      <c r="X113" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="114" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>60.620607833156299</v>
       </c>
@@ -7036,35 +6710,32 @@
       <c r="F114" t="s">
         <v>393</v>
       </c>
-      <c r="G114">
-        <v>106</v>
-      </c>
-      <c r="H114" s="100">
+      <c r="G114" s="73">
         <v>45866</v>
       </c>
+      <c r="H114" t="s">
+        <v>382</v>
+      </c>
       <c r="I114" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K114" t="s">
-        <v>373</v>
-      </c>
-      <c r="L114" t="s">
         <v>269</v>
       </c>
+      <c r="S114" t="s">
+        <v>384</v>
+      </c>
       <c r="T114" t="s">
-        <v>384</v>
-      </c>
-      <c r="U114" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y114" t="s">
+        <v>383</v>
+      </c>
+      <c r="X114" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="115" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>60.620607833156299</v>
       </c>
@@ -7074,35 +6745,32 @@
       <c r="F115" t="s">
         <v>393</v>
       </c>
-      <c r="G115">
-        <v>107</v>
-      </c>
-      <c r="H115" s="100">
+      <c r="G115" s="73">
         <v>45866</v>
       </c>
+      <c r="H115" t="s">
+        <v>382</v>
+      </c>
       <c r="I115" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K115" t="s">
-        <v>373</v>
-      </c>
-      <c r="L115" t="s">
         <v>269</v>
       </c>
+      <c r="S115" t="s">
+        <v>384</v>
+      </c>
       <c r="T115" t="s">
-        <v>384</v>
-      </c>
-      <c r="U115" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y115" t="s">
+        <v>383</v>
+      </c>
+      <c r="X115" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>60.620607833156299</v>
       </c>
@@ -7112,38 +6780,35 @@
       <c r="F116" t="s">
         <v>393</v>
       </c>
-      <c r="G116">
-        <v>108</v>
-      </c>
-      <c r="H116" s="100">
+      <c r="G116" s="73">
         <v>45866</v>
       </c>
+      <c r="H116" t="s">
+        <v>382</v>
+      </c>
       <c r="I116" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K116" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="L116" t="s">
-        <v>269</v>
-      </c>
-      <c r="M116" t="s">
         <v>391</v>
       </c>
+      <c r="S116" t="s">
+        <v>384</v>
+      </c>
       <c r="T116" t="s">
-        <v>384</v>
-      </c>
-      <c r="U116" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y116" t="s">
+        <v>383</v>
+      </c>
+      <c r="X116" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>60.620607833156299</v>
       </c>
@@ -7153,35 +6818,32 @@
       <c r="F117" t="s">
         <v>393</v>
       </c>
-      <c r="G117">
-        <v>109</v>
-      </c>
-      <c r="H117" s="100">
+      <c r="G117" s="73">
         <v>45866</v>
       </c>
+      <c r="H117" t="s">
+        <v>382</v>
+      </c>
       <c r="I117" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="K117" t="s">
-        <v>373</v>
-      </c>
-      <c r="L117" t="s">
         <v>269</v>
       </c>
+      <c r="S117" t="s">
+        <v>384</v>
+      </c>
       <c r="T117" t="s">
-        <v>384</v>
-      </c>
-      <c r="U117" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y117" t="s">
+        <v>383</v>
+      </c>
+      <c r="X117" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>60.619163833236897</v>
       </c>
@@ -7191,35 +6853,32 @@
       <c r="F118" t="s">
         <v>393</v>
       </c>
-      <c r="G118">
-        <v>110</v>
-      </c>
-      <c r="H118" s="100">
+      <c r="G118" s="73">
         <v>45866</v>
       </c>
+      <c r="H118" t="s">
+        <v>382</v>
+      </c>
       <c r="I118" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s">
-        <v>210</v>
-      </c>
-      <c r="L118" t="s">
         <v>253</v>
       </c>
-      <c r="T118">
+      <c r="S118">
         <v>0</v>
       </c>
-      <c r="U118" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y118" t="s">
+      <c r="T118" t="s">
+        <v>383</v>
+      </c>
+      <c r="X118" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>60.619163833236897</v>
       </c>
@@ -7229,35 +6888,32 @@
       <c r="F119" t="s">
         <v>393</v>
       </c>
-      <c r="G119">
-        <v>111</v>
-      </c>
-      <c r="H119" s="100">
+      <c r="G119" s="73">
         <v>45866</v>
       </c>
+      <c r="H119" t="s">
+        <v>382</v>
+      </c>
       <c r="I119" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="K119" t="s">
-        <v>210</v>
-      </c>
-      <c r="L119" t="s">
         <v>253</v>
       </c>
-      <c r="T119">
+      <c r="S119">
         <v>0</v>
       </c>
-      <c r="U119" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y119" t="s">
+      <c r="T119" t="s">
+        <v>383</v>
+      </c>
+      <c r="X119" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>60.619163833236897</v>
       </c>
@@ -7267,35 +6923,32 @@
       <c r="F120" t="s">
         <v>393</v>
       </c>
-      <c r="G120">
-        <v>112</v>
-      </c>
-      <c r="H120" s="100">
+      <c r="G120" s="73">
         <v>45866</v>
       </c>
+      <c r="H120" t="s">
+        <v>382</v>
+      </c>
       <c r="I120" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="K120" t="s">
-        <v>186</v>
-      </c>
-      <c r="L120" t="s">
-        <v>241</v>
-      </c>
-      <c r="T120">
+        <v>241</v>
+      </c>
+      <c r="S120">
         <v>0</v>
       </c>
-      <c r="U120" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y120" t="s">
+      <c r="T120" t="s">
+        <v>383</v>
+      </c>
+      <c r="X120" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>60.619163833236897</v>
       </c>
@@ -7305,35 +6958,32 @@
       <c r="F121" t="s">
         <v>393</v>
       </c>
-      <c r="G121">
-        <v>113</v>
-      </c>
-      <c r="H121" s="100">
+      <c r="G121" s="73">
         <v>45866</v>
       </c>
+      <c r="H121" t="s">
+        <v>382</v>
+      </c>
       <c r="I121" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="K121" t="s">
-        <v>186</v>
-      </c>
-      <c r="L121" t="s">
-        <v>241</v>
-      </c>
-      <c r="T121">
+        <v>241</v>
+      </c>
+      <c r="S121">
         <v>0</v>
       </c>
-      <c r="U121" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y121" t="s">
+      <c r="T121" t="s">
+        <v>383</v>
+      </c>
+      <c r="X121" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>60.615087833529799</v>
       </c>
@@ -7343,32 +6993,29 @@
       <c r="F122" t="s">
         <v>393</v>
       </c>
-      <c r="G122">
-        <v>114</v>
-      </c>
-      <c r="H122" s="100">
+      <c r="G122" s="73">
         <v>45866</v>
       </c>
+      <c r="H122" t="s">
+        <v>382</v>
+      </c>
       <c r="I122" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J122" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K122" t="s">
-        <v>78</v>
-      </c>
-      <c r="L122" t="s">
-        <v>241</v>
-      </c>
-      <c r="T122">
+        <v>241</v>
+      </c>
+      <c r="S122">
         <v>0</v>
       </c>
-      <c r="U122" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="123" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T122" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>60.615087833529799</v>
       </c>
@@ -7378,32 +7025,29 @@
       <c r="F123" t="s">
         <v>393</v>
       </c>
-      <c r="G123">
-        <v>115</v>
-      </c>
-      <c r="H123" s="100">
+      <c r="G123" s="73">
         <v>45866</v>
       </c>
+      <c r="H123" t="s">
+        <v>382</v>
+      </c>
       <c r="I123" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J123" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K123" t="s">
-        <v>78</v>
-      </c>
-      <c r="L123" t="s">
-        <v>241</v>
-      </c>
-      <c r="T123">
+        <v>241</v>
+      </c>
+      <c r="S123">
         <v>0</v>
       </c>
-      <c r="U123" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="124" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>60.615087833529799</v>
       </c>
@@ -7413,32 +7057,29 @@
       <c r="F124" t="s">
         <v>393</v>
       </c>
-      <c r="G124">
-        <v>116</v>
-      </c>
-      <c r="H124" s="100">
+      <c r="G124" s="73">
         <v>45866</v>
       </c>
+      <c r="H124" t="s">
+        <v>382</v>
+      </c>
       <c r="I124" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J124" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K124" t="s">
-        <v>78</v>
-      </c>
-      <c r="L124" t="s">
-        <v>241</v>
-      </c>
-      <c r="T124">
+        <v>241</v>
+      </c>
+      <c r="S124">
         <v>0</v>
       </c>
-      <c r="U124" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="125" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T124" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>60.615087833529799</v>
       </c>
@@ -7448,32 +7089,29 @@
       <c r="F125" t="s">
         <v>393</v>
       </c>
-      <c r="G125">
-        <v>117</v>
-      </c>
-      <c r="H125" s="100">
+      <c r="G125" s="73">
         <v>45866</v>
       </c>
+      <c r="H125" t="s">
+        <v>382</v>
+      </c>
       <c r="I125" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J125" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K125" t="s">
-        <v>78</v>
-      </c>
-      <c r="L125" t="s">
-        <v>241</v>
-      </c>
-      <c r="T125">
+        <v>241</v>
+      </c>
+      <c r="S125">
         <v>0</v>
       </c>
-      <c r="U125" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>60.615087833529799</v>
       </c>
@@ -7483,32 +7121,29 @@
       <c r="F126" t="s">
         <v>393</v>
       </c>
-      <c r="G126">
-        <v>118</v>
-      </c>
-      <c r="H126" s="100">
+      <c r="G126" s="73">
         <v>45866</v>
       </c>
+      <c r="H126" t="s">
+        <v>382</v>
+      </c>
       <c r="I126" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J126" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K126" t="s">
-        <v>78</v>
-      </c>
-      <c r="L126" t="s">
-        <v>241</v>
-      </c>
-      <c r="T126">
+        <v>241</v>
+      </c>
+      <c r="S126">
         <v>0</v>
       </c>
-      <c r="U126" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>60.615087833529799</v>
       </c>
@@ -7518,35 +7153,32 @@
       <c r="F127" t="s">
         <v>393</v>
       </c>
-      <c r="G127">
-        <v>119</v>
-      </c>
-      <c r="H127" s="100">
+      <c r="G127" s="73">
         <v>45866</v>
       </c>
+      <c r="H127" t="s">
+        <v>382</v>
+      </c>
       <c r="I127" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J127" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K127" t="s">
-        <v>78</v>
-      </c>
-      <c r="L127" t="s">
-        <v>241</v>
-      </c>
-      <c r="T127">
+        <v>241</v>
+      </c>
+      <c r="S127">
         <v>0</v>
       </c>
-      <c r="U127" t="s">
+      <c r="T127" t="s">
         <v>275</v>
       </c>
-      <c r="Y127" t="s">
+      <c r="X127" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="128" spans="2:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>60.615087833529799</v>
       </c>
@@ -7556,35 +7188,32 @@
       <c r="F128" t="s">
         <v>393</v>
       </c>
-      <c r="G128">
-        <v>120</v>
-      </c>
-      <c r="H128" s="100">
+      <c r="G128" s="73">
         <v>45866</v>
       </c>
+      <c r="H128" t="s">
+        <v>382</v>
+      </c>
       <c r="I128" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J128" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K128" t="s">
-        <v>78</v>
-      </c>
-      <c r="L128" t="s">
-        <v>241</v>
-      </c>
-      <c r="T128">
+        <v>241</v>
+      </c>
+      <c r="S128">
         <v>0</v>
       </c>
-      <c r="U128" t="s">
+      <c r="T128" t="s">
         <v>275</v>
       </c>
-      <c r="Y128" t="s">
+      <c r="X128" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>60.615087833529799</v>
       </c>
@@ -7594,32 +7223,29 @@
       <c r="F129" t="s">
         <v>393</v>
       </c>
-      <c r="G129">
-        <v>121</v>
-      </c>
-      <c r="H129" s="100">
+      <c r="G129" s="73">
         <v>45866</v>
       </c>
+      <c r="H129" t="s">
+        <v>382</v>
+      </c>
       <c r="I129" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J129" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K129" t="s">
-        <v>170</v>
-      </c>
-      <c r="L129" t="s">
         <v>218</v>
       </c>
-      <c r="T129">
+      <c r="S129">
         <v>2</v>
       </c>
-      <c r="U129" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="130" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>60.615087833529799</v>
       </c>
@@ -7629,32 +7255,29 @@
       <c r="F130" t="s">
         <v>393</v>
       </c>
-      <c r="G130">
-        <v>122</v>
-      </c>
-      <c r="H130" s="100">
+      <c r="G130" s="73">
         <v>45866</v>
       </c>
+      <c r="H130" t="s">
+        <v>382</v>
+      </c>
       <c r="I130" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J130" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K130" t="s">
-        <v>170</v>
-      </c>
-      <c r="L130" t="s">
         <v>218</v>
       </c>
-      <c r="T130">
+      <c r="S130">
         <v>2</v>
       </c>
-      <c r="U130" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="131" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T130" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>60.615087833529799</v>
       </c>
@@ -7664,32 +7287,29 @@
       <c r="F131" t="s">
         <v>393</v>
       </c>
-      <c r="G131">
-        <v>123</v>
-      </c>
-      <c r="H131" s="100">
+      <c r="G131" s="73">
         <v>45866</v>
       </c>
+      <c r="H131" t="s">
+        <v>382</v>
+      </c>
       <c r="I131" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J131" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K131" t="s">
-        <v>170</v>
-      </c>
-      <c r="L131" t="s">
         <v>218</v>
       </c>
-      <c r="T131">
+      <c r="S131">
         <v>2</v>
       </c>
-      <c r="U131" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>60.615087833529799</v>
       </c>
@@ -7699,32 +7319,29 @@
       <c r="F132" t="s">
         <v>393</v>
       </c>
-      <c r="G132">
-        <v>124</v>
-      </c>
-      <c r="H132" s="100">
+      <c r="G132" s="73">
         <v>45866</v>
       </c>
+      <c r="H132" t="s">
+        <v>382</v>
+      </c>
       <c r="I132" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J132" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K132" t="s">
-        <v>170</v>
-      </c>
-      <c r="L132" t="s">
         <v>218</v>
       </c>
-      <c r="T132">
+      <c r="S132">
         <v>2</v>
       </c>
-      <c r="U132" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="133" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T132" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>60.615087833529799</v>
       </c>
@@ -7734,32 +7351,29 @@
       <c r="F133" t="s">
         <v>393</v>
       </c>
-      <c r="G133">
-        <v>125</v>
-      </c>
-      <c r="H133" s="100">
+      <c r="G133" s="73">
         <v>45866</v>
       </c>
+      <c r="H133" t="s">
+        <v>382</v>
+      </c>
       <c r="I133" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J133" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s">
-        <v>170</v>
-      </c>
-      <c r="L133" t="s">
         <v>218</v>
       </c>
-      <c r="T133">
+      <c r="S133">
         <v>2</v>
       </c>
-      <c r="U133" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="134" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T133" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>60.615087833529799</v>
       </c>
@@ -7769,32 +7383,29 @@
       <c r="F134" t="s">
         <v>393</v>
       </c>
-      <c r="G134">
-        <v>126</v>
-      </c>
-      <c r="H134" s="100">
+      <c r="G134" s="73">
         <v>45866</v>
       </c>
+      <c r="H134" t="s">
+        <v>382</v>
+      </c>
       <c r="I134" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J134" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K134" t="s">
-        <v>170</v>
-      </c>
-      <c r="L134" t="s">
         <v>218</v>
       </c>
-      <c r="T134">
+      <c r="S134">
         <v>2</v>
       </c>
-      <c r="U134" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="135" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T134" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>60.615087833529799</v>
       </c>
@@ -7804,32 +7415,29 @@
       <c r="F135" t="s">
         <v>393</v>
       </c>
-      <c r="G135">
-        <v>127</v>
-      </c>
-      <c r="H135" s="100">
+      <c r="G135" s="73">
         <v>45866</v>
       </c>
+      <c r="H135" t="s">
+        <v>382</v>
+      </c>
       <c r="I135" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J135" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K135" t="s">
-        <v>170</v>
-      </c>
-      <c r="L135" t="s">
         <v>218</v>
       </c>
-      <c r="T135">
+      <c r="S135">
         <v>2</v>
       </c>
-      <c r="U135" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="136" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T135" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>60.615087833529799</v>
       </c>
@@ -7839,32 +7447,29 @@
       <c r="F136" t="s">
         <v>393</v>
       </c>
-      <c r="G136">
-        <v>128</v>
-      </c>
-      <c r="H136" s="100">
+      <c r="G136" s="73">
         <v>45866</v>
       </c>
+      <c r="H136" t="s">
+        <v>382</v>
+      </c>
       <c r="I136" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J136" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K136" t="s">
-        <v>156</v>
-      </c>
-      <c r="L136" t="s">
-        <v>241</v>
-      </c>
-      <c r="T136">
+        <v>241</v>
+      </c>
+      <c r="S136">
         <v>6</v>
       </c>
-      <c r="U136" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="137" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>60.615087833529799</v>
       </c>
@@ -7874,32 +7479,29 @@
       <c r="F137" t="s">
         <v>393</v>
       </c>
-      <c r="G137">
-        <v>129</v>
-      </c>
-      <c r="H137" s="100">
+      <c r="G137" s="73">
         <v>45866</v>
       </c>
+      <c r="H137" t="s">
+        <v>382</v>
+      </c>
       <c r="I137" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J137" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K137" t="s">
-        <v>156</v>
-      </c>
-      <c r="L137" t="s">
-        <v>241</v>
-      </c>
-      <c r="T137">
+        <v>241</v>
+      </c>
+      <c r="S137">
         <v>6</v>
       </c>
-      <c r="U137" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="138" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T137" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>60.615087833529799</v>
       </c>
@@ -7909,32 +7511,29 @@
       <c r="F138" t="s">
         <v>393</v>
       </c>
-      <c r="G138">
-        <v>130</v>
-      </c>
-      <c r="H138" s="100">
+      <c r="G138" s="73">
         <v>45866</v>
       </c>
+      <c r="H138" t="s">
+        <v>382</v>
+      </c>
       <c r="I138" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J138" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K138" t="s">
-        <v>156</v>
-      </c>
-      <c r="L138" t="s">
-        <v>241</v>
-      </c>
-      <c r="T138">
+        <v>241</v>
+      </c>
+      <c r="S138">
         <v>6</v>
       </c>
-      <c r="U138" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="139" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>60.615087833529799</v>
       </c>
@@ -7944,32 +7543,29 @@
       <c r="F139" t="s">
         <v>393</v>
       </c>
-      <c r="G139">
-        <v>131</v>
-      </c>
-      <c r="H139" s="100">
+      <c r="G139" s="73">
         <v>45866</v>
       </c>
+      <c r="H139" t="s">
+        <v>382</v>
+      </c>
       <c r="I139" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J139" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K139" t="s">
-        <v>156</v>
-      </c>
-      <c r="L139" t="s">
-        <v>241</v>
-      </c>
-      <c r="T139">
+        <v>241</v>
+      </c>
+      <c r="S139">
         <v>6</v>
       </c>
-      <c r="U139" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>60.615087833529799</v>
       </c>
@@ -7979,32 +7575,29 @@
       <c r="F140" t="s">
         <v>393</v>
       </c>
-      <c r="G140">
-        <v>132</v>
-      </c>
-      <c r="H140" s="100">
+      <c r="G140" s="73">
         <v>45866</v>
       </c>
+      <c r="H140" t="s">
+        <v>382</v>
+      </c>
       <c r="I140" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J140" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K140" t="s">
-        <v>156</v>
-      </c>
-      <c r="L140" t="s">
-        <v>241</v>
-      </c>
-      <c r="T140">
+        <v>241</v>
+      </c>
+      <c r="S140">
         <v>6</v>
       </c>
-      <c r="U140" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="141" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T140" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>60.615087833529799</v>
       </c>
@@ -8014,32 +7607,29 @@
       <c r="F141" t="s">
         <v>393</v>
       </c>
-      <c r="G141">
-        <v>133</v>
-      </c>
-      <c r="H141" s="100">
+      <c r="G141" s="73">
         <v>45866</v>
       </c>
+      <c r="H141" t="s">
+        <v>382</v>
+      </c>
       <c r="I141" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J141" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K141" t="s">
-        <v>156</v>
-      </c>
-      <c r="L141" t="s">
-        <v>241</v>
-      </c>
-      <c r="T141">
+        <v>241</v>
+      </c>
+      <c r="S141">
         <v>6</v>
       </c>
-      <c r="U141" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="142" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>60.615087833529799</v>
       </c>
@@ -8049,32 +7639,29 @@
       <c r="F142" t="s">
         <v>393</v>
       </c>
-      <c r="G142">
-        <v>134</v>
-      </c>
-      <c r="H142" s="100">
+      <c r="G142" s="73">
         <v>45866</v>
       </c>
+      <c r="H142" t="s">
+        <v>382</v>
+      </c>
       <c r="I142" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J142" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K142" t="s">
-        <v>156</v>
-      </c>
-      <c r="L142" t="s">
-        <v>241</v>
-      </c>
-      <c r="T142">
+        <v>241</v>
+      </c>
+      <c r="S142">
         <v>6</v>
       </c>
-      <c r="U142" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="143" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T142" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>60.615087833529799</v>
       </c>
@@ -8084,32 +7671,29 @@
       <c r="F143" t="s">
         <v>393</v>
       </c>
-      <c r="G143">
-        <v>135</v>
-      </c>
-      <c r="H143" s="100">
+      <c r="G143" s="73">
         <v>45866</v>
       </c>
+      <c r="H143" t="s">
+        <v>382</v>
+      </c>
       <c r="I143" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J143" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K143" t="s">
-        <v>378</v>
-      </c>
-      <c r="L143" t="s">
-        <v>241</v>
-      </c>
-      <c r="T143">
+        <v>241</v>
+      </c>
+      <c r="S143">
         <v>6</v>
       </c>
-      <c r="U143" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T143" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>60.615087833529799</v>
       </c>
@@ -8119,32 +7703,29 @@
       <c r="F144" t="s">
         <v>393</v>
       </c>
-      <c r="G144">
-        <v>136</v>
-      </c>
-      <c r="H144" s="100">
+      <c r="G144" s="73">
         <v>45866</v>
       </c>
+      <c r="H144" t="s">
+        <v>382</v>
+      </c>
       <c r="I144" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J144" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K144" t="s">
-        <v>378</v>
-      </c>
-      <c r="L144" t="s">
-        <v>241</v>
-      </c>
-      <c r="T144">
+        <v>241</v>
+      </c>
+      <c r="S144">
         <v>6</v>
       </c>
-      <c r="U144" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T144" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>60.615087833529799</v>
       </c>
@@ -8154,32 +7735,29 @@
       <c r="F145" t="s">
         <v>393</v>
       </c>
-      <c r="G145">
-        <v>137</v>
-      </c>
-      <c r="H145" s="100">
+      <c r="G145" s="73">
         <v>45866</v>
       </c>
+      <c r="H145" t="s">
+        <v>382</v>
+      </c>
       <c r="I145" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J145" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K145" t="s">
-        <v>378</v>
-      </c>
-      <c r="L145" t="s">
-        <v>241</v>
-      </c>
-      <c r="T145">
+        <v>241</v>
+      </c>
+      <c r="S145">
         <v>6</v>
       </c>
-      <c r="U145" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>60.615087833529799</v>
       </c>
@@ -8189,32 +7767,29 @@
       <c r="F146" t="s">
         <v>393</v>
       </c>
-      <c r="G146">
-        <v>138</v>
-      </c>
-      <c r="H146" s="100">
+      <c r="G146" s="73">
         <v>45866</v>
       </c>
+      <c r="H146" t="s">
+        <v>382</v>
+      </c>
       <c r="I146" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J146" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K146" t="s">
-        <v>378</v>
-      </c>
-      <c r="L146" t="s">
-        <v>241</v>
-      </c>
-      <c r="T146">
+        <v>241</v>
+      </c>
+      <c r="S146">
         <v>6</v>
       </c>
-      <c r="U146" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T146" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>60.615087833529799</v>
       </c>
@@ -8224,32 +7799,29 @@
       <c r="F147" t="s">
         <v>393</v>
       </c>
-      <c r="G147">
-        <v>139</v>
-      </c>
-      <c r="H147" s="100">
+      <c r="G147" s="73">
         <v>45866</v>
       </c>
+      <c r="H147" t="s">
+        <v>382</v>
+      </c>
       <c r="I147" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J147" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K147" t="s">
-        <v>378</v>
-      </c>
-      <c r="L147" t="s">
-        <v>241</v>
-      </c>
-      <c r="T147">
+        <v>241</v>
+      </c>
+      <c r="S147">
         <v>6</v>
       </c>
-      <c r="U147" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>60.615087833529799</v>
       </c>
@@ -8259,32 +7831,29 @@
       <c r="F148" t="s">
         <v>393</v>
       </c>
-      <c r="G148">
-        <v>140</v>
-      </c>
-      <c r="H148" s="100">
+      <c r="G148" s="73">
         <v>45866</v>
       </c>
+      <c r="H148" t="s">
+        <v>382</v>
+      </c>
       <c r="I148" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J148" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K148" t="s">
-        <v>378</v>
-      </c>
-      <c r="L148" t="s">
-        <v>241</v>
-      </c>
-      <c r="T148">
+        <v>241</v>
+      </c>
+      <c r="S148">
         <v>6</v>
       </c>
-      <c r="U148" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="149" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T148" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>60.615087833529799</v>
       </c>
@@ -8294,32 +7863,29 @@
       <c r="F149" t="s">
         <v>393</v>
       </c>
-      <c r="G149">
-        <v>141</v>
-      </c>
-      <c r="H149" s="100">
+      <c r="G149" s="73">
         <v>45866</v>
       </c>
+      <c r="H149" t="s">
+        <v>382</v>
+      </c>
       <c r="I149" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J149" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="K149" t="s">
-        <v>378</v>
-      </c>
-      <c r="L149" t="s">
-        <v>241</v>
-      </c>
-      <c r="T149">
+        <v>241</v>
+      </c>
+      <c r="S149">
         <v>6</v>
       </c>
-      <c r="U149" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="150" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>60.615087833529799</v>
       </c>
@@ -8329,32 +7895,29 @@
       <c r="F150" t="s">
         <v>393</v>
       </c>
-      <c r="G150">
-        <v>142</v>
-      </c>
-      <c r="H150" s="100">
+      <c r="G150" s="73">
         <v>45866</v>
       </c>
+      <c r="H150" t="s">
+        <v>382</v>
+      </c>
       <c r="I150" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J150" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K150" t="s">
-        <v>186</v>
-      </c>
-      <c r="L150" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S150" t="s">
+        <v>384</v>
       </c>
       <c r="T150" t="s">
-        <v>384</v>
-      </c>
-      <c r="U150" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="151" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>60.615087833529799</v>
       </c>
@@ -8364,32 +7927,29 @@
       <c r="F151" t="s">
         <v>393</v>
       </c>
-      <c r="G151">
-        <v>143</v>
-      </c>
-      <c r="H151" s="100">
+      <c r="G151" s="73">
         <v>45866</v>
       </c>
+      <c r="H151" t="s">
+        <v>382</v>
+      </c>
       <c r="I151" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J151" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K151" t="s">
-        <v>186</v>
-      </c>
-      <c r="L151" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S151" t="s">
+        <v>384</v>
       </c>
       <c r="T151" t="s">
-        <v>384</v>
-      </c>
-      <c r="U151" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="152" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>60.615087833529799</v>
       </c>
@@ -8399,32 +7959,29 @@
       <c r="F152" t="s">
         <v>393</v>
       </c>
-      <c r="G152">
-        <v>144</v>
-      </c>
-      <c r="H152" s="100">
+      <c r="G152" s="73">
         <v>45866</v>
       </c>
+      <c r="H152" t="s">
+        <v>382</v>
+      </c>
       <c r="I152" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J152" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K152" t="s">
-        <v>186</v>
-      </c>
-      <c r="L152" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S152" t="s">
+        <v>384</v>
       </c>
       <c r="T152" t="s">
-        <v>384</v>
-      </c>
-      <c r="U152" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="153" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>60.615087833529799</v>
       </c>
@@ -8434,32 +7991,29 @@
       <c r="F153" t="s">
         <v>393</v>
       </c>
-      <c r="G153">
-        <v>145</v>
-      </c>
-      <c r="H153" s="100">
+      <c r="G153" s="73">
         <v>45866</v>
       </c>
+      <c r="H153" t="s">
+        <v>382</v>
+      </c>
       <c r="I153" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J153" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K153" t="s">
-        <v>186</v>
-      </c>
-      <c r="L153" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S153" t="s">
+        <v>384</v>
       </c>
       <c r="T153" t="s">
-        <v>384</v>
-      </c>
-      <c r="U153" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="154" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>60.615087833529799</v>
       </c>
@@ -8469,32 +8023,29 @@
       <c r="F154" t="s">
         <v>393</v>
       </c>
-      <c r="G154">
-        <v>146</v>
-      </c>
-      <c r="H154" s="100">
+      <c r="G154" s="73">
         <v>45866</v>
       </c>
+      <c r="H154" t="s">
+        <v>382</v>
+      </c>
       <c r="I154" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J154" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K154" t="s">
-        <v>186</v>
-      </c>
-      <c r="L154" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S154" t="s">
+        <v>384</v>
       </c>
       <c r="T154" t="s">
-        <v>384</v>
-      </c>
-      <c r="U154" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="155" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>60.615087833529799</v>
       </c>
@@ -8504,32 +8055,29 @@
       <c r="F155" t="s">
         <v>393</v>
       </c>
-      <c r="G155">
-        <v>147</v>
-      </c>
-      <c r="H155" s="100">
+      <c r="G155" s="73">
         <v>45866</v>
       </c>
+      <c r="H155" t="s">
+        <v>382</v>
+      </c>
       <c r="I155" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J155" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K155" t="s">
-        <v>186</v>
-      </c>
-      <c r="L155" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S155" t="s">
+        <v>384</v>
       </c>
       <c r="T155" t="s">
-        <v>384</v>
-      </c>
-      <c r="U155" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="156" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>60.615087833529799</v>
       </c>
@@ -8539,32 +8087,29 @@
       <c r="F156" t="s">
         <v>393</v>
       </c>
-      <c r="G156">
-        <v>148</v>
-      </c>
-      <c r="H156" s="100">
+      <c r="G156" s="73">
         <v>45866</v>
       </c>
+      <c r="H156" t="s">
+        <v>382</v>
+      </c>
       <c r="I156" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J156" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K156" t="s">
-        <v>186</v>
-      </c>
-      <c r="L156" t="s">
-        <v>241</v>
+        <v>241</v>
+      </c>
+      <c r="S156" t="s">
+        <v>384</v>
       </c>
       <c r="T156" t="s">
-        <v>384</v>
-      </c>
-      <c r="U156" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="157" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>60.615087833529799</v>
       </c>
@@ -8574,32 +8119,29 @@
       <c r="F157" t="s">
         <v>393</v>
       </c>
-      <c r="G157">
-        <v>149</v>
-      </c>
-      <c r="H157" s="100">
+      <c r="G157" s="73">
         <v>45866</v>
       </c>
+      <c r="H157" t="s">
+        <v>382</v>
+      </c>
       <c r="I157" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J157" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K157" t="s">
-        <v>156</v>
-      </c>
-      <c r="L157" t="s">
-        <v>241</v>
-      </c>
-      <c r="T157">
+        <v>241</v>
+      </c>
+      <c r="S157">
         <v>0</v>
       </c>
-      <c r="U157" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="158" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T157" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>60.615087833529799</v>
       </c>
@@ -8609,32 +8151,29 @@
       <c r="F158" t="s">
         <v>393</v>
       </c>
-      <c r="G158">
-        <v>150</v>
-      </c>
-      <c r="H158" s="100">
+      <c r="G158" s="73">
         <v>45866</v>
       </c>
+      <c r="H158" t="s">
+        <v>382</v>
+      </c>
       <c r="I158" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J158" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K158" t="s">
-        <v>156</v>
-      </c>
-      <c r="L158" t="s">
-        <v>241</v>
-      </c>
-      <c r="T158">
+        <v>241</v>
+      </c>
+      <c r="S158">
         <v>0</v>
       </c>
-      <c r="U158" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="159" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T158" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>60.615087833529799</v>
       </c>
@@ -8644,32 +8183,29 @@
       <c r="F159" t="s">
         <v>393</v>
       </c>
-      <c r="G159">
-        <v>151</v>
-      </c>
-      <c r="H159" s="100">
+      <c r="G159" s="73">
         <v>45866</v>
       </c>
+      <c r="H159" t="s">
+        <v>382</v>
+      </c>
       <c r="I159" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J159" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K159" t="s">
-        <v>156</v>
-      </c>
-      <c r="L159" t="s">
-        <v>241</v>
-      </c>
-      <c r="T159">
+        <v>241</v>
+      </c>
+      <c r="S159">
         <v>0</v>
       </c>
-      <c r="U159" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="160" spans="2:21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T159" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>60.615087833529799</v>
       </c>
@@ -8679,32 +8215,29 @@
       <c r="F160" t="s">
         <v>393</v>
       </c>
-      <c r="G160">
-        <v>152</v>
-      </c>
-      <c r="H160" s="100">
+      <c r="G160" s="73">
         <v>45866</v>
       </c>
+      <c r="H160" t="s">
+        <v>382</v>
+      </c>
       <c r="I160" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J160" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K160" t="s">
-        <v>156</v>
-      </c>
-      <c r="L160" t="s">
-        <v>241</v>
-      </c>
-      <c r="T160">
+        <v>241</v>
+      </c>
+      <c r="S160">
         <v>0</v>
       </c>
-      <c r="U160" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T160" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>60.615087833529799</v>
       </c>
@@ -8714,32 +8247,29 @@
       <c r="F161" t="s">
         <v>393</v>
       </c>
-      <c r="G161">
-        <v>153</v>
-      </c>
-      <c r="H161" s="100">
+      <c r="G161" s="73">
         <v>45866</v>
       </c>
+      <c r="H161" t="s">
+        <v>382</v>
+      </c>
       <c r="I161" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J161" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K161" t="s">
-        <v>156</v>
-      </c>
-      <c r="L161" t="s">
-        <v>241</v>
-      </c>
-      <c r="T161">
+        <v>241</v>
+      </c>
+      <c r="S161">
         <v>0</v>
       </c>
-      <c r="U161" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T161" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>60.615087833529799</v>
       </c>
@@ -8749,32 +8279,29 @@
       <c r="F162" t="s">
         <v>393</v>
       </c>
-      <c r="G162">
-        <v>154</v>
-      </c>
-      <c r="H162" s="100">
+      <c r="G162" s="73">
         <v>45866</v>
       </c>
+      <c r="H162" t="s">
+        <v>382</v>
+      </c>
       <c r="I162" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J162" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K162" t="s">
-        <v>156</v>
-      </c>
-      <c r="L162" t="s">
-        <v>241</v>
-      </c>
-      <c r="T162">
+        <v>241</v>
+      </c>
+      <c r="S162">
         <v>0</v>
       </c>
-      <c r="U162" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T162" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>60.615087833529799</v>
       </c>
@@ -8784,39 +8311,36 @@
       <c r="F163" t="s">
         <v>393</v>
       </c>
-      <c r="G163">
-        <v>155</v>
-      </c>
-      <c r="H163" s="100">
+      <c r="G163" s="73">
         <v>45866</v>
       </c>
+      <c r="H163" t="s">
+        <v>382</v>
+      </c>
       <c r="I163" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J163" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="K163" t="s">
-        <v>156</v>
-      </c>
-      <c r="L163" t="s">
-        <v>241</v>
-      </c>
-      <c r="T163">
+        <v>241</v>
+      </c>
+      <c r="S163">
         <v>0</v>
       </c>
-      <c r="U163" t="s">
+      <c r="T163" t="s">
         <v>275</v>
       </c>
-      <c r="Y163" t="s">
+      <c r="X163" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>385</v>
       </c>
-      <c r="B164" s="70" t="s">
+      <c r="B164" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C164">
@@ -8825,36 +8349,36 @@
       <c r="F164" t="s">
         <v>385</v>
       </c>
-      <c r="H164" s="100">
+      <c r="G164" s="73">
         <v>45860</v>
       </c>
+      <c r="H164" t="s">
+        <v>387</v>
+      </c>
       <c r="I164" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K164" t="s">
-        <v>88</v>
-      </c>
-      <c r="L164" t="s">
-        <v>241</v>
-      </c>
-      <c r="T164">
+        <v>241</v>
+      </c>
+      <c r="S164">
         <v>6</v>
       </c>
-      <c r="U164" t="s">
+      <c r="T164" t="s">
         <v>271</v>
       </c>
-      <c r="Y164" t="s">
+      <c r="X164" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="165" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>385</v>
       </c>
-      <c r="B165" s="70" t="s">
+      <c r="B165" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C165">
@@ -8863,36 +8387,36 @@
       <c r="F165" t="s">
         <v>385</v>
       </c>
-      <c r="H165" s="100">
+      <c r="G165" s="73">
         <v>45860</v>
       </c>
+      <c r="H165" t="s">
+        <v>387</v>
+      </c>
       <c r="I165" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K165" t="s">
-        <v>170</v>
-      </c>
-      <c r="L165" t="s">
         <v>253</v>
       </c>
-      <c r="T165">
+      <c r="S165">
         <v>3</v>
       </c>
-      <c r="U165" t="s">
+      <c r="T165" t="s">
         <v>271</v>
       </c>
-      <c r="Y165" t="s">
+      <c r="X165" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>385</v>
       </c>
-      <c r="B166" s="70" t="s">
+      <c r="B166" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C166">
@@ -8901,36 +8425,36 @@
       <c r="F166" t="s">
         <v>385</v>
       </c>
-      <c r="H166" s="100">
+      <c r="G166" s="73">
         <v>45860</v>
       </c>
+      <c r="H166" t="s">
+        <v>387</v>
+      </c>
       <c r="I166" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J166" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="K166" t="s">
-        <v>168</v>
-      </c>
-      <c r="L166" t="s">
-        <v>241</v>
-      </c>
-      <c r="T166">
+        <v>241</v>
+      </c>
+      <c r="S166">
         <v>0</v>
       </c>
-      <c r="U166" t="s">
+      <c r="T166" t="s">
         <v>271</v>
       </c>
-      <c r="Y166" t="s">
+      <c r="X166" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>385</v>
       </c>
-      <c r="B167" s="70" t="s">
+      <c r="B167" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C167">
@@ -8939,36 +8463,36 @@
       <c r="F167" t="s">
         <v>385</v>
       </c>
-      <c r="H167" s="100">
+      <c r="G167" s="73">
         <v>45853</v>
       </c>
+      <c r="H167" t="s">
+        <v>387</v>
+      </c>
       <c r="I167" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J167" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K167" t="s">
-        <v>88</v>
-      </c>
-      <c r="L167" t="s">
-        <v>241</v>
-      </c>
-      <c r="T167">
+        <v>241</v>
+      </c>
+      <c r="S167">
         <v>6</v>
       </c>
-      <c r="U167" t="s">
+      <c r="T167" t="s">
         <v>271</v>
       </c>
-      <c r="Y167" t="s">
+      <c r="X167" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="168" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>385</v>
       </c>
-      <c r="B168" s="70" t="s">
+      <c r="B168" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C168">
@@ -8977,36 +8501,36 @@
       <c r="F168" t="s">
         <v>385</v>
       </c>
-      <c r="H168" s="100">
+      <c r="G168" s="73">
         <v>45853</v>
       </c>
+      <c r="H168" t="s">
+        <v>387</v>
+      </c>
       <c r="I168" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J168" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K168" t="s">
-        <v>170</v>
-      </c>
-      <c r="L168" t="s">
         <v>253</v>
       </c>
-      <c r="T168">
+      <c r="S168">
         <v>4</v>
       </c>
-      <c r="U168" t="s">
+      <c r="T168" t="s">
         <v>271</v>
       </c>
-      <c r="Y168" t="s">
+      <c r="X168" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>385</v>
       </c>
-      <c r="B169" s="70" t="s">
+      <c r="B169" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C169">
@@ -9015,36 +8539,36 @@
       <c r="F169" t="s">
         <v>385</v>
       </c>
-      <c r="H169" s="100">
+      <c r="G169" s="73">
         <v>45846</v>
       </c>
+      <c r="H169" t="s">
+        <v>387</v>
+      </c>
       <c r="I169" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J169" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K169" t="s">
-        <v>88</v>
-      </c>
-      <c r="L169" t="s">
-        <v>241</v>
-      </c>
-      <c r="T169">
+        <v>241</v>
+      </c>
+      <c r="S169">
         <v>10</v>
       </c>
-      <c r="U169" t="s">
+      <c r="T169" t="s">
         <v>271</v>
       </c>
-      <c r="Y169" t="s">
+      <c r="X169" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="170" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>385</v>
       </c>
-      <c r="B170" s="70" t="s">
+      <c r="B170" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C170">
@@ -9053,36 +8577,36 @@
       <c r="F170" t="s">
         <v>385</v>
       </c>
-      <c r="H170" s="100">
+      <c r="G170" s="73">
         <v>45846</v>
       </c>
+      <c r="H170" t="s">
+        <v>387</v>
+      </c>
       <c r="I170" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J170" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K170" t="s">
-        <v>170</v>
-      </c>
-      <c r="L170" t="s">
         <v>253</v>
       </c>
-      <c r="T170">
+      <c r="S170">
         <v>3</v>
       </c>
-      <c r="U170" t="s">
+      <c r="T170" t="s">
         <v>271</v>
       </c>
-      <c r="Y170" t="s">
+      <c r="X170" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="171" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>385</v>
       </c>
-      <c r="B171" s="70" t="s">
+      <c r="B171" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C171">
@@ -9091,36 +8615,36 @@
       <c r="F171" t="s">
         <v>385</v>
       </c>
-      <c r="H171" s="100">
+      <c r="G171" s="73">
         <v>45846</v>
       </c>
+      <c r="H171" t="s">
+        <v>387</v>
+      </c>
       <c r="I171" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J171" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="K171" t="s">
-        <v>78</v>
-      </c>
-      <c r="L171" t="s">
-        <v>241</v>
-      </c>
-      <c r="T171">
+        <v>241</v>
+      </c>
+      <c r="S171">
         <v>0</v>
       </c>
-      <c r="U171" t="s">
+      <c r="T171" t="s">
         <v>271</v>
       </c>
-      <c r="Y171" t="s">
+      <c r="X171" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>385</v>
       </c>
-      <c r="B172" s="70" t="s">
+      <c r="B172" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C172">
@@ -9129,36 +8653,36 @@
       <c r="F172" t="s">
         <v>385</v>
       </c>
-      <c r="H172" s="100">
+      <c r="G172" s="73">
         <v>45832</v>
       </c>
+      <c r="H172" t="s">
+        <v>387</v>
+      </c>
       <c r="I172" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J172" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K172" t="s">
-        <v>88</v>
-      </c>
-      <c r="L172" t="s">
-        <v>241</v>
-      </c>
-      <c r="T172">
+        <v>241</v>
+      </c>
+      <c r="S172">
         <v>30</v>
       </c>
-      <c r="U172" t="s">
+      <c r="T172" t="s">
         <v>271</v>
       </c>
-      <c r="Y172" t="s">
+      <c r="X172" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>385</v>
       </c>
-      <c r="B173" s="70" t="s">
+      <c r="B173" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C173">
@@ -9167,36 +8691,36 @@
       <c r="F173" t="s">
         <v>385</v>
       </c>
-      <c r="H173" s="100">
+      <c r="G173" s="73">
         <v>45832</v>
       </c>
+      <c r="H173" t="s">
+        <v>387</v>
+      </c>
       <c r="I173" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J173" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K173" t="s">
-        <v>170</v>
-      </c>
-      <c r="L173" t="s">
         <v>253</v>
       </c>
-      <c r="T173">
+      <c r="S173">
         <v>3</v>
       </c>
-      <c r="U173" t="s">
+      <c r="T173" t="s">
         <v>271</v>
       </c>
-      <c r="Y173" t="s">
+      <c r="X173" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>385</v>
       </c>
-      <c r="B174" s="70" t="s">
+      <c r="B174" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C174">
@@ -9205,36 +8729,36 @@
       <c r="F174" t="s">
         <v>385</v>
       </c>
-      <c r="H174" s="100">
+      <c r="G174" s="73">
         <v>45832</v>
       </c>
+      <c r="H174" t="s">
+        <v>387</v>
+      </c>
       <c r="I174" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J174" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="K174" t="s">
-        <v>168</v>
-      </c>
-      <c r="L174" t="s">
         <v>253</v>
       </c>
-      <c r="T174">
+      <c r="S174">
         <v>0</v>
       </c>
-      <c r="U174" t="s">
+      <c r="T174" t="s">
         <v>271</v>
       </c>
-      <c r="Y174" t="s">
+      <c r="X174" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="175" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>385</v>
       </c>
-      <c r="B175" s="70" t="s">
+      <c r="B175" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C175">
@@ -9243,36 +8767,36 @@
       <c r="F175" t="s">
         <v>385</v>
       </c>
-      <c r="H175" s="100">
+      <c r="G175" s="73">
         <v>45825</v>
       </c>
+      <c r="H175" t="s">
+        <v>387</v>
+      </c>
       <c r="I175" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J175" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K175" t="s">
-        <v>170</v>
-      </c>
-      <c r="L175" t="s">
         <v>253</v>
       </c>
-      <c r="T175">
+      <c r="S175">
         <v>5</v>
       </c>
-      <c r="U175" t="s">
+      <c r="T175" t="s">
         <v>271</v>
       </c>
-      <c r="Y175" t="s">
+      <c r="X175" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="176" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>385</v>
       </c>
-      <c r="B176" s="70" t="s">
+      <c r="B176" s="68" t="s">
         <v>386</v>
       </c>
       <c r="C176">
@@ -9281,32 +8805,32 @@
       <c r="F176" t="s">
         <v>385</v>
       </c>
-      <c r="H176" s="100">
+      <c r="G176" s="73">
         <v>45825</v>
       </c>
+      <c r="H176" t="s">
+        <v>387</v>
+      </c>
       <c r="I176" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J176" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K176" t="s">
-        <v>88</v>
-      </c>
-      <c r="L176" t="s">
-        <v>241</v>
-      </c>
-      <c r="T176">
+        <v>241</v>
+      </c>
+      <c r="S176">
         <v>3</v>
       </c>
-      <c r="U176" t="s">
+      <c r="T176" t="s">
         <v>271</v>
       </c>
-      <c r="Y176" t="s">
+      <c r="X176" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>389</v>
       </c>
@@ -9319,32 +8843,32 @@
       <c r="F177" t="s">
         <v>389</v>
       </c>
-      <c r="H177" s="100">
+      <c r="G177" s="73">
         <v>45793</v>
       </c>
+      <c r="H177" t="s">
+        <v>387</v>
+      </c>
       <c r="I177" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J177" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K177" t="s">
-        <v>127</v>
-      </c>
-      <c r="L177" t="s">
         <v>253</v>
       </c>
-      <c r="T177">
+      <c r="S177">
         <v>3</v>
       </c>
-      <c r="U177" t="s">
+      <c r="T177" t="s">
         <v>271</v>
       </c>
-      <c r="Y177" t="s">
+      <c r="X177" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>390</v>
       </c>
@@ -9357,32 +8881,32 @@
       <c r="F178" t="s">
         <v>390</v>
       </c>
-      <c r="H178" s="100">
+      <c r="G178" s="73">
         <v>45791</v>
       </c>
+      <c r="H178" t="s">
+        <v>387</v>
+      </c>
       <c r="I178" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J178" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K178" t="s">
-        <v>88</v>
-      </c>
-      <c r="L178" t="s">
-        <v>241</v>
-      </c>
-      <c r="T178">
+        <v>241</v>
+      </c>
+      <c r="S178">
         <v>5</v>
       </c>
-      <c r="U178" t="s">
+      <c r="T178" t="s">
         <v>271</v>
       </c>
-      <c r="Y178" t="s">
+      <c r="X178" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>390</v>
       </c>
@@ -9395,32 +8919,32 @@
       <c r="F179" t="s">
         <v>390</v>
       </c>
-      <c r="H179" s="100">
+      <c r="G179" s="73">
         <v>45791</v>
       </c>
+      <c r="H179" t="s">
+        <v>387</v>
+      </c>
       <c r="I179" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J179" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="K179" t="s">
-        <v>192</v>
-      </c>
-      <c r="L179" t="s">
         <v>253</v>
       </c>
-      <c r="T179">
+      <c r="S179">
         <v>0</v>
       </c>
-      <c r="U179" t="s">
+      <c r="T179" t="s">
         <v>271</v>
       </c>
-      <c r="Y179" t="s">
+      <c r="X179" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="180" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>390</v>
       </c>
@@ -9433,32 +8957,32 @@
       <c r="F180" t="s">
         <v>390</v>
       </c>
-      <c r="H180" s="100">
+      <c r="G180" s="73">
         <v>45791</v>
       </c>
+      <c r="H180" t="s">
+        <v>387</v>
+      </c>
       <c r="I180" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J180" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K180" t="s">
-        <v>127</v>
-      </c>
-      <c r="L180" t="s">
         <v>253</v>
       </c>
-      <c r="T180">
+      <c r="S180">
         <v>0</v>
       </c>
-      <c r="U180" t="s">
+      <c r="T180" t="s">
         <v>271</v>
       </c>
-      <c r="Y180" t="s">
+      <c r="X180" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>390</v>
       </c>
@@ -9471,32 +8995,32 @@
       <c r="F181" t="s">
         <v>390</v>
       </c>
-      <c r="H181" s="100">
+      <c r="G181" s="73">
         <v>45791</v>
       </c>
+      <c r="H181" t="s">
+        <v>387</v>
+      </c>
       <c r="I181" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J181" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K181" t="s">
-        <v>170</v>
-      </c>
-      <c r="L181" t="s">
         <v>253</v>
       </c>
-      <c r="T181">
+      <c r="S181">
         <v>2</v>
       </c>
-      <c r="U181" t="s">
+      <c r="T181" t="s">
         <v>271</v>
       </c>
-      <c r="Y181" t="s">
+      <c r="X181" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>390</v>
       </c>
@@ -9509,32 +9033,32 @@
       <c r="F182" t="s">
         <v>390</v>
       </c>
-      <c r="H182" s="100">
+      <c r="G182" s="73">
         <v>45790</v>
       </c>
+      <c r="H182" t="s">
+        <v>387</v>
+      </c>
       <c r="I182" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J182" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K182" t="s">
-        <v>88</v>
-      </c>
-      <c r="L182" t="s">
-        <v>241</v>
-      </c>
-      <c r="T182">
+        <v>241</v>
+      </c>
+      <c r="S182">
         <v>4</v>
       </c>
-      <c r="U182" t="s">
+      <c r="T182" t="s">
         <v>271</v>
       </c>
-      <c r="Y182" t="s">
+      <c r="X182" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="183" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>390</v>
       </c>
@@ -9547,32 +9071,32 @@
       <c r="F183" t="s">
         <v>390</v>
       </c>
-      <c r="H183" s="100">
+      <c r="G183" s="73">
         <v>45790</v>
       </c>
+      <c r="H183" t="s">
+        <v>387</v>
+      </c>
       <c r="I183" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J183" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="K183" t="s">
-        <v>94</v>
-      </c>
-      <c r="L183" t="s">
         <v>253</v>
       </c>
-      <c r="T183">
+      <c r="S183">
         <v>0</v>
       </c>
-      <c r="U183" t="s">
+      <c r="T183" t="s">
         <v>271</v>
       </c>
-      <c r="Y183" t="s">
+      <c r="X183" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:25" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>390</v>
       </c>
@@ -9585,79 +9109,79 @@
       <c r="F184" t="s">
         <v>390</v>
       </c>
-      <c r="H184" s="100">
+      <c r="G184" s="73">
         <v>45790</v>
       </c>
+      <c r="H184" t="s">
+        <v>387</v>
+      </c>
       <c r="I184" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="J184" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="K184" t="s">
-        <v>170</v>
-      </c>
-      <c r="L184" t="s">
         <v>253</v>
       </c>
-      <c r="T184">
+      <c r="S184">
         <v>1</v>
       </c>
-      <c r="U184" t="s">
+      <c r="T184" t="s">
         <v>271</v>
       </c>
-      <c r="Y184" t="s">
+      <c r="X184" t="s">
         <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="M6:S6"/>
   </mergeCells>
   <dataValidations xWindow="1174" yWindow="497" count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Latitude: " prompt="Must be entered as decimal degrees (DD.DDDDD). _x000a__x000a_Acceptable input is a numeric value only. Do not enter an &quot;N&quot; since a positive latitude value corresponds to North." sqref="B6:B7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Longitude:" prompt="Must be entered as decimal degrees (-DDD.DDDDD). _x000a__x000a_Acceptable input is numeric values only. Do not enter a &quot;W&quot; since a negative longitude value corresponds to West._x000a__x000a_" sqref="C6:C7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Datum:" prompt="Datum of GPS coordinates. Choose from drop-down list." sqref="D6:D7" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Coordinate determination method:" prompt="Choose from drop-down list: _x000a_&quot;GPS&quot; - coordinates measured using a GPS; _x000a_&quot;MAP&quot; - coordinates derived from locations plotted on a map or aerial photo." sqref="E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name of water body:" prompt="Enter the official (GNIS) name (e.g., the name given on USGS quad map); or, if a local name is used, enter &quot; (local name)&quot; after the stream name." sqref="F6:G7" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date:" prompt="Enter the date (mm/dd/yyyy) when fish collection gear was deployed." sqref="H6:H7" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Observer name:" prompt="Enter the name of the field crew leader who was present at the specified location and date." sqref="I6:I7" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fish collection method:" prompt="Gear type used to collect fish at the specified location and date. Choose from drop-down list." sqref="J6:J7" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species:" prompt="Choose a valid species from the drop-down list." sqref="K6:K7" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Life stage:" prompt="Choose a valid life stage from the drop-down list. _x000a__x000a_See the &quot;Cell Drop Down List&quot; worksheet for descriptions of life stages." sqref="L6:L7" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Length (mm):" prompt="Must be entered as millimeters. Leave blank if length data was not collected." sqref="M7" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Length method:" prompt="Enter a valid length method from the drop-down list. _x000a__x000a_See the &quot;Cell Drop Down List&quot; worksheet for descriptions of length methods." sqref="N7" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weight:" prompt="Must be entered as grams. Leave blank if weight data was not collected." sqref="O7" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sex:" prompt="Choose a valid sex from the drop-down list._x000a_" sqref="P7" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age:" prompt="Enter total age (years) as an integer; or use a decimal (e.g., 1.3) to enter the freshwater and saltwater ages separately." sqref="Q7" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age method:" prompt="Enter a valid age method (structure that was aged) from the drop-down list._x000a__x000a_Example: Scale, Otolith, Fin Ray, etc." sqref="R7" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ADF&amp;G GCL:" prompt="Enter the count of fish from which a genetic sample was retained for ADF&amp;G. If no genetic sample was collected for the Gene Conservation Lab, leave blank." sqref="S7" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Additional count (1):" prompt="Number of additional fish of the specified species and life stage that were observed at the specified location, but not individually recorded.  Estimates are acceptable." sqref="T6:T7" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disposition (1):" prompt="Enter a valid dispostion from the drop-down list for the individual fish recorded, or the group of fish recorded under [Additional count (1)]._x000a_" sqref="U6:U7" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Addtional count (2):" prompt="Number of additional fish of the specified species and life stage that were observed at the specified location, but were not recorded individually and were not recorded under [Additional count (1)].  Estimates are acceptable." sqref="V6:V7" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disposition (2):" prompt="Enter a valid dispostion from the drop-down list for the group of fish recorded under [Additional count (2)]." sqref="W6:W7" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name of water body:" prompt="Enter the official (GNIS) name (e.g., the name given on USGS quad map); or, if a local name is used, enter &quot; (local name)&quot; after the stream name." sqref="F6:F7" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date:" prompt="Enter the date (mm/dd/yyyy) when fish collection gear was deployed." sqref="G6:G7" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Observer name:" prompt="Enter the name of the field crew leader who was present at the specified location and date." sqref="H6:H7" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fish collection method:" prompt="Gear type used to collect fish at the specified location and date. Choose from drop-down list." sqref="I6:I7" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species:" prompt="Choose a valid species from the drop-down list." sqref="J6:J7" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Life stage:" prompt="Choose a valid life stage from the drop-down list. _x000a__x000a_See the &quot;Cell Drop Down List&quot; worksheet for descriptions of life stages." sqref="K6:K7" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Length (mm):" prompt="Must be entered as millimeters. Leave blank if length data was not collected." sqref="L7" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Length method:" prompt="Enter a valid length method from the drop-down list. _x000a__x000a_See the &quot;Cell Drop Down List&quot; worksheet for descriptions of length methods." sqref="M7" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weight:" prompt="Must be entered as grams. Leave blank if weight data was not collected." sqref="N7" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sex:" prompt="Choose a valid sex from the drop-down list._x000a_" sqref="O7" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age:" prompt="Enter total age (years) as an integer; or use a decimal (e.g., 1.3) to enter the freshwater and saltwater ages separately." sqref="P7" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age method:" prompt="Enter a valid age method (structure that was aged) from the drop-down list._x000a__x000a_Example: Scale, Otolith, Fin Ray, etc." sqref="Q7" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ADF&amp;G GCL:" prompt="Enter the count of fish from which a genetic sample was retained for ADF&amp;G. If no genetic sample was collected for the Gene Conservation Lab, leave blank." sqref="R7" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Additional count (1):" prompt="Number of additional fish of the specified species and life stage that were observed at the specified location, but not individually recorded.  Estimates are acceptable." sqref="S6:S7" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disposition (1):" prompt="Enter a valid dispostion from the drop-down list for the individual fish recorded, or the group of fish recorded under [Additional count (1)]._x000a_" sqref="T6:T7" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Addtional count (2):" prompt="Number of additional fish of the specified species and life stage that were observed at the specified location, but were not recorded individually and were not recorded under [Additional count (1)].  Estimates are acceptable." sqref="U6:U7" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disposition (2):" prompt="Enter a valid dispostion from the drop-down list for the group of fish recorded under [Additional count (2)]." sqref="V6:V7" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location ID:" prompt="Unique identifier for each location where fish were collected. " sqref="A6:A7" xr:uid="{00000000-0002-0000-0100-000018000000}"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Acceptable latitude range is 50-72" sqref="B8:B1048576" xr:uid="{00000000-0002-0000-0100-000015000000}">
       <formula1>50</formula1>
@@ -9667,7 +9191,7 @@
       <formula1>-180</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter the date (mm/dd/yyyy)." sqref="H8:H1048576" xr:uid="{00000000-0002-0000-0100-000017000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter the date (mm/dd/yyyy)." sqref="G8:G1048576" xr:uid="{00000000-0002-0000-0100-000017000000}">
       <formula1>36526</formula1>
       <formula2>55153</formula2>
     </dataValidation>
@@ -9693,55 +9217,55 @@
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$11:$B$45</xm:f>
           </x14:formula1>
-          <xm:sqref>J8:J1048576</xm:sqref>
+          <xm:sqref>I8:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a life stage from the drop-down list._x000a__x000a_See &quot;Cell Drop Down List&quot; worksheet for life stage descriptions." xr:uid="{00000000-0002-0000-0100-00001C000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$139:$B$153</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L1048576</xm:sqref>
+          <xm:sqref>K8:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose valid length method from the drop-down list._x000a__x000a_See &quot;Cell Drop Down List&quot; worksheet for method descriptions." xr:uid="{00000000-0002-0000-0100-00001D000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$166:$B$176</xm:f>
           </x14:formula1>
-          <xm:sqref>N8:N1048576</xm:sqref>
+          <xm:sqref>M8:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a valid sex from the drop-down list." xr:uid="{00000000-0002-0000-0100-00001E000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$155:$B$157</xm:f>
           </x14:formula1>
-          <xm:sqref>P8:P1048576</xm:sqref>
+          <xm:sqref>O8:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a valid age method/sample type from the drop-down list." xr:uid="{00000000-0002-0000-0100-00001F000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$159:$B$164</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R1048576</xm:sqref>
+          <xm:sqref>Q8:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a valid anesthesia from the drop-down list." xr:uid="{00000000-0002-0000-0100-000020000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$204:$B$207</xm:f>
           </x14:formula1>
-          <xm:sqref>X8:X1048576</xm:sqref>
+          <xm:sqref>W8:W1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a valid disposition from the drop-down list." xr:uid="{00000000-0002-0000-0100-000021000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$178:$B$202</xm:f>
           </x14:formula1>
-          <xm:sqref>U8:U1048576</xm:sqref>
+          <xm:sqref>T8:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a valid disposition from the drop-down list." xr:uid="{00000000-0002-0000-0100-000022000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$178:$B$201</xm:f>
           </x14:formula1>
-          <xm:sqref>W8:W1048576</xm:sqref>
+          <xm:sqref>V8:V1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Choose a species from the drop-down list." xr:uid="{00000000-0002-0000-0100-000023000000}">
           <x14:formula1>
             <xm:f>'Cell Drop Down List'!$B$47:$B$137</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K1048576</xm:sqref>
+          <xm:sqref>J8:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11037,29 +10561,29 @@
       <c r="B152" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C152" s="92" t="s">
+      <c r="C152" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="D152" s="92"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="92"/>
-      <c r="H152" s="92"/>
-      <c r="I152" s="92"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
     </row>
     <row r="153" spans="1:9" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C153" s="93" t="s">
+      <c r="C153" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="D153" s="93"/>
-      <c r="E153" s="93"/>
-      <c r="F153" s="93"/>
-      <c r="G153" s="93"/>
-      <c r="H153" s="93"/>
-      <c r="I153" s="93"/>
+      <c r="D153" s="99"/>
+      <c r="E153" s="99"/>
+      <c r="F153" s="99"/>
+      <c r="G153" s="99"/>
+      <c r="H153" s="99"/>
+      <c r="I153" s="99"/>
     </row>
     <row r="154" spans="1:9" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
